--- a/Data/technological_maturity_readiness.xlsx
+++ b/Data/technological_maturity_readiness.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5457EFA8-AE47-41EB-A31E-187B1909223B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:40009_{5457EFA8-AE47-41EB-A31E-187B1909223B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAFE8BAD-C3AE-428E-B558-E3A52EB936A5}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="28800" windowHeight="23400"/>
+    <workbookView xWindow="1170" yWindow="600" windowWidth="43050" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="technological_readiness" sheetId="2" r:id="rId1"/>
@@ -179,7 +179,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -748,8 +748,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:H460" totalsRowShown="0">
-  <autoFilter ref="A1:H460">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:H460" totalsRowShown="0">
+  <autoFilter ref="A1:H460" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="MMM"/>
@@ -757,14 +757,14 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="Scenario"/>
-    <tableColumn id="2" name="Mode"/>
-    <tableColumn id="3" name="Fuel"/>
-    <tableColumn id="4" name="2020"/>
-    <tableColumn id="5" name="2025"/>
-    <tableColumn id="6" name="2030"/>
-    <tableColumn id="7" name="2040"/>
-    <tableColumn id="8" name="2050"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Scenario"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Mode"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Fuel"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="2020"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="2025"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2030"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2040"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2050"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1066,11 +1066,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,10 +1325,10 @@
         <v>5</v>
       </c>
       <c r="F11" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G11" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1498,7 +1498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L460"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Data/technological_maturity_readiness.xlsx
+++ b/Data/technological_maturity_readiness.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:40009_{5457EFA8-AE47-41EB-A31E-187B1909223B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAFE8BAD-C3AE-428E-B558-E3A52EB936A5}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:40009_{5457EFA8-AE47-41EB-A31E-187B1909223B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA87EC07-C364-453C-A8EC-DE4230B22C6F}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="600" windowWidth="43050" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13095" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="technological_readiness" sheetId="2" r:id="rId1"/>
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,10 +1302,10 @@
         <v>5</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G10" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1325,10 +1325,10 @@
         <v>5</v>
       </c>
       <c r="F11" s="3">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="G11" s="4">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">

--- a/Data/technological_maturity_readiness.xlsx
+++ b/Data/technological_maturity_readiness.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:40009_{5457EFA8-AE47-41EB-A31E-187B1909223B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA87EC07-C364-453C-A8EC-DE4230B22C6F}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:40009_{5457EFA8-AE47-41EB-A31E-187B1909223B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D17E17C8-F0C5-479D-AFA1-8C5D868A0ACF}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13095" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,10 +1302,10 @@
         <v>5</v>
       </c>
       <c r="F10" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G10" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1325,10 +1325,10 @@
         <v>5</v>
       </c>
       <c r="F11" s="3">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="G11" s="4">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">

--- a/Data/technological_maturity_readiness.xlsx
+++ b/Data/technological_maturity_readiness.xlsx
@@ -5,23 +5,41 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\egbertrv\Documents\GitHub\AIM_Norwegian_Freight_Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:40009_{5457EFA8-AE47-41EB-A31E-187B1909223B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA87EC07-C364-453C-A8EC-DE4230B22C6F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DECEEF-037C-4F46-93A5-FB68D0FB36EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13095" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="technological_readiness" sheetId="2" r:id="rId1"/>
-    <sheet name="scenarios_maturities_27" sheetId="1" r:id="rId2"/>
+    <sheet name="technological_readiness_paths" sheetId="3" r:id="rId2"/>
+    <sheet name="Fuel_groups (cheatsheet)" sheetId="4" r:id="rId3"/>
+    <sheet name="scenarios_maturities_27 (OLD)" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Fuel_groups (cheatsheet)'!$A$1:$C$19</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="60">
   <si>
     <t>Scenario</t>
   </si>
@@ -175,6 +193,33 @@
   <si>
     <t>2050</t>
   </si>
+  <si>
+    <t>Maturity_Path</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>slow</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>Fuel group</t>
+  </si>
+  <si>
+    <t>Established</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>Biofuel</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
 </sst>
 </file>
 
@@ -316,7 +361,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -502,8 +547,32 @@
         <bgColor theme="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -638,6 +707,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -683,12 +761,25 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1069,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,10 +1585,1617 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4805C95-1AF1-48B1-A4A3-091952BC3BC4}">
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="5">
+        <v>100</v>
+      </c>
+      <c r="E2" s="5">
+        <v>100</v>
+      </c>
+      <c r="F2" s="5">
+        <v>100</v>
+      </c>
+      <c r="G2" s="5">
+        <v>100</v>
+      </c>
+      <c r="H2" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="5">
+        <v>100</v>
+      </c>
+      <c r="E3" s="5">
+        <v>100</v>
+      </c>
+      <c r="F3" s="5">
+        <v>100</v>
+      </c>
+      <c r="G3" s="5">
+        <v>100</v>
+      </c>
+      <c r="H3" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="6">
+        <v>100</v>
+      </c>
+      <c r="E4" s="6">
+        <v>100</v>
+      </c>
+      <c r="F4" s="6">
+        <v>100</v>
+      </c>
+      <c r="G4" s="6">
+        <v>100</v>
+      </c>
+      <c r="H4" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
+        <v>50</v>
+      </c>
+      <c r="F5" s="14">
+        <v>90</v>
+      </c>
+      <c r="G5" s="14">
+        <v>100</v>
+      </c>
+      <c r="H5" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
+        <v>50</v>
+      </c>
+      <c r="F6" s="14">
+        <v>70</v>
+      </c>
+      <c r="G6" s="14">
+        <v>100</v>
+      </c>
+      <c r="H6" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>50</v>
+      </c>
+      <c r="F7" s="15">
+        <v>100</v>
+      </c>
+      <c r="G7" s="15">
+        <v>100</v>
+      </c>
+      <c r="H7" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>10</v>
+      </c>
+      <c r="F8" s="12">
+        <v>80</v>
+      </c>
+      <c r="G8" s="12">
+        <v>100</v>
+      </c>
+      <c r="H8" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>10</v>
+      </c>
+      <c r="F9" s="12">
+        <v>30</v>
+      </c>
+      <c r="G9" s="12">
+        <v>50</v>
+      </c>
+      <c r="H9" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
+        <v>10</v>
+      </c>
+      <c r="F10" s="13">
+        <v>100</v>
+      </c>
+      <c r="G10" s="13">
+        <v>100</v>
+      </c>
+      <c r="H10" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="16">
+        <v>5</v>
+      </c>
+      <c r="E11" s="16">
+        <v>10</v>
+      </c>
+      <c r="F11" s="16">
+        <v>12</v>
+      </c>
+      <c r="G11" s="16">
+        <v>15</v>
+      </c>
+      <c r="H11" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="16">
+        <v>5</v>
+      </c>
+      <c r="E12" s="16">
+        <v>10</v>
+      </c>
+      <c r="F12" s="16">
+        <v>10</v>
+      </c>
+      <c r="G12" s="16">
+        <v>12</v>
+      </c>
+      <c r="H12" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="17">
+        <v>5</v>
+      </c>
+      <c r="E13" s="17">
+        <v>10</v>
+      </c>
+      <c r="F13" s="17">
+        <v>15</v>
+      </c>
+      <c r="G13" s="17">
+        <v>20</v>
+      </c>
+      <c r="H13" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16">
+        <v>4</v>
+      </c>
+      <c r="G14" s="16">
+        <v>7</v>
+      </c>
+      <c r="H14" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
+        <v>1</v>
+      </c>
+      <c r="F15" s="16">
+        <v>2</v>
+      </c>
+      <c r="G15" s="16">
+        <v>3</v>
+      </c>
+      <c r="H15" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
+        <v>1</v>
+      </c>
+      <c r="F16" s="17">
+        <v>7</v>
+      </c>
+      <c r="G16" s="17">
+        <v>10</v>
+      </c>
+      <c r="H16" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="5">
+        <v>100</v>
+      </c>
+      <c r="E17" s="5">
+        <v>100</v>
+      </c>
+      <c r="F17" s="5">
+        <v>100</v>
+      </c>
+      <c r="G17" s="5">
+        <v>100</v>
+      </c>
+      <c r="H17" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="5">
+        <v>100</v>
+      </c>
+      <c r="E18" s="5">
+        <v>100</v>
+      </c>
+      <c r="F18" s="5">
+        <v>100</v>
+      </c>
+      <c r="G18" s="5">
+        <v>100</v>
+      </c>
+      <c r="H18" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="6">
+        <v>100</v>
+      </c>
+      <c r="E19" s="6">
+        <v>100</v>
+      </c>
+      <c r="F19" s="6">
+        <v>100</v>
+      </c>
+      <c r="G19" s="6">
+        <v>100</v>
+      </c>
+      <c r="H19" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="5">
+        <v>100</v>
+      </c>
+      <c r="E20" s="5">
+        <v>100</v>
+      </c>
+      <c r="F20" s="5">
+        <v>100</v>
+      </c>
+      <c r="G20" s="5">
+        <v>100</v>
+      </c>
+      <c r="H20" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="5">
+        <v>100</v>
+      </c>
+      <c r="E21" s="5">
+        <v>100</v>
+      </c>
+      <c r="F21" s="5">
+        <v>100</v>
+      </c>
+      <c r="G21" s="5">
+        <v>100</v>
+      </c>
+      <c r="H21" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="6">
+        <v>100</v>
+      </c>
+      <c r="E22" s="6">
+        <v>100</v>
+      </c>
+      <c r="F22" s="6">
+        <v>100</v>
+      </c>
+      <c r="G22" s="6">
+        <v>100</v>
+      </c>
+      <c r="H22" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="5">
+        <v>10</v>
+      </c>
+      <c r="E23" s="5">
+        <v>20</v>
+      </c>
+      <c r="F23" s="5">
+        <v>30</v>
+      </c>
+      <c r="G23" s="5">
+        <v>30</v>
+      </c>
+      <c r="H23" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="5">
+        <v>10</v>
+      </c>
+      <c r="E24" s="5">
+        <v>20</v>
+      </c>
+      <c r="F24" s="5">
+        <v>30</v>
+      </c>
+      <c r="G24" s="5">
+        <v>30</v>
+      </c>
+      <c r="H24" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="6">
+        <v>10</v>
+      </c>
+      <c r="E25" s="6">
+        <v>20</v>
+      </c>
+      <c r="F25" s="6">
+        <v>30</v>
+      </c>
+      <c r="G25" s="6">
+        <v>30</v>
+      </c>
+      <c r="H25" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0</v>
+      </c>
+      <c r="F26" s="12">
+        <v>5</v>
+      </c>
+      <c r="G26" s="12">
+        <v>30</v>
+      </c>
+      <c r="H26" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0</v>
+      </c>
+      <c r="F27" s="12">
+        <v>0</v>
+      </c>
+      <c r="G27" s="12">
+        <v>20</v>
+      </c>
+      <c r="H27" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="13">
+        <v>0</v>
+      </c>
+      <c r="E28" s="13">
+        <v>0</v>
+      </c>
+      <c r="F28" s="13">
+        <v>25</v>
+      </c>
+      <c r="G28" s="13">
+        <v>50</v>
+      </c>
+      <c r="H28" s="13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0</v>
+      </c>
+      <c r="F29" s="12">
+        <v>5</v>
+      </c>
+      <c r="G29" s="12">
+        <v>30</v>
+      </c>
+      <c r="H29" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0</v>
+      </c>
+      <c r="F30" s="12">
+        <v>0</v>
+      </c>
+      <c r="G30" s="12">
+        <v>10</v>
+      </c>
+      <c r="H30" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="13">
+        <v>0</v>
+      </c>
+      <c r="E31" s="13">
+        <v>0</v>
+      </c>
+      <c r="F31" s="13">
+        <v>15</v>
+      </c>
+      <c r="G31" s="13">
+        <v>45</v>
+      </c>
+      <c r="H31" s="13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="16">
+        <v>0</v>
+      </c>
+      <c r="E32" s="16">
+        <v>0</v>
+      </c>
+      <c r="F32" s="16">
+        <v>5</v>
+      </c>
+      <c r="G32" s="16">
+        <v>80</v>
+      </c>
+      <c r="H32" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="16">
+        <v>0</v>
+      </c>
+      <c r="E33" s="16">
+        <v>0</v>
+      </c>
+      <c r="F33" s="16">
+        <v>5</v>
+      </c>
+      <c r="G33" s="16">
+        <v>30</v>
+      </c>
+      <c r="H33" s="16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="17">
+        <v>0</v>
+      </c>
+      <c r="E34" s="17">
+        <v>0</v>
+      </c>
+      <c r="F34" s="17">
+        <v>5</v>
+      </c>
+      <c r="G34" s="17">
+        <v>100</v>
+      </c>
+      <c r="H34" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="16">
+        <v>0</v>
+      </c>
+      <c r="E35" s="16">
+        <v>0</v>
+      </c>
+      <c r="F35" s="16">
+        <v>5</v>
+      </c>
+      <c r="G35" s="16">
+        <v>80</v>
+      </c>
+      <c r="H35" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="16">
+        <v>0</v>
+      </c>
+      <c r="E36" s="16">
+        <v>0</v>
+      </c>
+      <c r="F36" s="16">
+        <v>5</v>
+      </c>
+      <c r="G36" s="16">
+        <v>30</v>
+      </c>
+      <c r="H36" s="16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="17">
+        <v>0</v>
+      </c>
+      <c r="E37" s="17">
+        <v>0</v>
+      </c>
+      <c r="F37" s="17">
+        <v>5</v>
+      </c>
+      <c r="G37" s="17">
+        <v>100</v>
+      </c>
+      <c r="H37" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="5">
+        <v>100</v>
+      </c>
+      <c r="E38" s="5">
+        <v>100</v>
+      </c>
+      <c r="F38" s="5">
+        <v>100</v>
+      </c>
+      <c r="G38" s="5">
+        <v>100</v>
+      </c>
+      <c r="H38" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="5">
+        <v>100</v>
+      </c>
+      <c r="E39" s="5">
+        <v>100</v>
+      </c>
+      <c r="F39" s="5">
+        <v>100</v>
+      </c>
+      <c r="G39" s="5">
+        <v>100</v>
+      </c>
+      <c r="H39" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="6">
+        <v>100</v>
+      </c>
+      <c r="E40" s="6">
+        <v>100</v>
+      </c>
+      <c r="F40" s="6">
+        <v>100</v>
+      </c>
+      <c r="G40" s="6">
+        <v>100</v>
+      </c>
+      <c r="H40" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="5">
+        <v>100</v>
+      </c>
+      <c r="E41" s="5">
+        <v>100</v>
+      </c>
+      <c r="F41" s="5">
+        <v>100</v>
+      </c>
+      <c r="G41" s="5">
+        <v>100</v>
+      </c>
+      <c r="H41" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="5">
+        <v>100</v>
+      </c>
+      <c r="E42" s="5">
+        <v>100</v>
+      </c>
+      <c r="F42" s="5">
+        <v>100</v>
+      </c>
+      <c r="G42" s="5">
+        <v>100</v>
+      </c>
+      <c r="H42" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="6">
+        <v>100</v>
+      </c>
+      <c r="E43" s="6">
+        <v>100</v>
+      </c>
+      <c r="F43" s="6">
+        <v>100</v>
+      </c>
+      <c r="G43" s="6">
+        <v>100</v>
+      </c>
+      <c r="H43" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="14">
+        <v>0</v>
+      </c>
+      <c r="E44" s="14">
+        <v>0</v>
+      </c>
+      <c r="F44" s="14">
+        <v>10</v>
+      </c>
+      <c r="G44" s="14">
+        <v>30</v>
+      </c>
+      <c r="H44" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="14">
+        <v>0</v>
+      </c>
+      <c r="E45" s="14">
+        <v>0</v>
+      </c>
+      <c r="F45" s="14">
+        <v>0</v>
+      </c>
+      <c r="G45" s="14">
+        <v>10</v>
+      </c>
+      <c r="H45" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="15">
+        <v>0</v>
+      </c>
+      <c r="E46" s="15">
+        <v>0</v>
+      </c>
+      <c r="F46" s="15">
+        <v>30</v>
+      </c>
+      <c r="G46" s="15">
+        <v>50</v>
+      </c>
+      <c r="H46" s="15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="12">
+        <v>0</v>
+      </c>
+      <c r="E47" s="12">
+        <v>0</v>
+      </c>
+      <c r="F47" s="12">
+        <v>1</v>
+      </c>
+      <c r="G47" s="12">
+        <v>3</v>
+      </c>
+      <c r="H47" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="12">
+        <v>0</v>
+      </c>
+      <c r="E48" s="12">
+        <v>0</v>
+      </c>
+      <c r="F48" s="12">
+        <v>0</v>
+      </c>
+      <c r="G48" s="12">
+        <v>1</v>
+      </c>
+      <c r="H48" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="13">
+        <v>0</v>
+      </c>
+      <c r="E49" s="13">
+        <v>0</v>
+      </c>
+      <c r="F49" s="13">
+        <v>3</v>
+      </c>
+      <c r="G49" s="13">
+        <v>5</v>
+      </c>
+      <c r="H49" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="16">
+        <v>0</v>
+      </c>
+      <c r="E50" s="16">
+        <v>0</v>
+      </c>
+      <c r="F50" s="16">
+        <v>2</v>
+      </c>
+      <c r="G50" s="16">
+        <v>6</v>
+      </c>
+      <c r="H50" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="16">
+        <v>0</v>
+      </c>
+      <c r="E51" s="16">
+        <v>0</v>
+      </c>
+      <c r="F51" s="16">
+        <v>0</v>
+      </c>
+      <c r="G51" s="16">
+        <v>2</v>
+      </c>
+      <c r="H51" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="17">
+        <v>0</v>
+      </c>
+      <c r="E52" s="17">
+        <v>0</v>
+      </c>
+      <c r="F52" s="17">
+        <v>6</v>
+      </c>
+      <c r="G52" s="17">
+        <v>10</v>
+      </c>
+      <c r="H52" s="17">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B18F167-6DBA-4198-BA06-95A49D6CEE47}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C19" xr:uid="{5B18F167-6DBA-4198-BA06-95A49D6CEE47}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C19">
+      <sortCondition ref="C1:C19"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L460"/>
   <sheetViews>
@@ -13475,8 +15173,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Data/technological_maturity_readiness.xlsx
+++ b/Data/technological_maturity_readiness.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\egbertrv\Documents\GitHub\AIM_Norwegian_Freight_Model\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DECEEF-037C-4F46-93A5-FB68D0FB36EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{39DECEEF-037C-4F46-93A5-FB68D0FB36EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5359D8E-B9B2-4222-9EB6-263D32716377}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13800" yWindow="0" windowWidth="30345" windowHeight="23400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="technological_readiness" sheetId="2" r:id="rId1"/>
@@ -1593,8 +1593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4805C95-1AF1-48B1-A4A3-091952BC3BC4}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/technological_maturity_readiness.xlsx
+++ b/Data/technological_maturity_readiness.xlsx
@@ -5,21 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\egbertrv\Documents\GitHub\AIM_Norwegian_Freight_Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{39DECEEF-037C-4F46-93A5-FB68D0FB36EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5359D8E-B9B2-4222-9EB6-263D32716377}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FD589F-F050-4CBF-9731-4E39708FF62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13800" yWindow="0" windowWidth="30345" windowHeight="23400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="technological_readiness" sheetId="2" r:id="rId1"/>
     <sheet name="technological_readiness_paths" sheetId="3" r:id="rId2"/>
-    <sheet name="Fuel_groups (cheatsheet)" sheetId="4" r:id="rId3"/>
-    <sheet name="scenarios_maturities_27 (OLD)" sheetId="1" r:id="rId4"/>
+    <sheet name="technological_readiness_temp" sheetId="5" r:id="rId3"/>
+    <sheet name="technological_readiness_bass" sheetId="6" r:id="rId4"/>
+    <sheet name="Fuel_groups (cheatsheet)" sheetId="4" r:id="rId5"/>
+    <sheet name="scenarios_maturities_27 (OLD)" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Fuel_groups (cheatsheet)'!$A$1:$C$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Fuel_groups (cheatsheet)'!$A$1:$C$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="74">
   <si>
     <t>Scenario</t>
   </si>
@@ -220,6 +222,48 @@
   <si>
     <t>Hybrid</t>
   </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>t_0</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Mature</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Mature?</t>
+  </si>
+  <si>
+    <t>Fast: increase p and q by 50%</t>
+  </si>
+  <si>
+    <t>Slow: decrease p and q by 50%</t>
+  </si>
+  <si>
+    <t>What should we make random? P, q, or t_0?</t>
+  </si>
+  <si>
+    <t>Answer: p and q jointly. p affects mostly the beginning (when the technology takes off), while q affects the rest of the process</t>
+  </si>
+  <si>
+    <t>variation</t>
+  </si>
+  <si>
+    <t>Base variation (%)</t>
+  </si>
 </sst>
 </file>
 
@@ -361,7 +405,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,8 +615,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -716,8 +772,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -760,8 +825,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -780,8 +846,21 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="35" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="37" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="36" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="39" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -821,6 +900,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -1593,8 +1673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4805C95-1AF1-48B1-A4A3-091952BC3BC4}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2962,6 +3042,2623 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861B896F-D644-4444-9C31-F96BFC1BA11D}">
+  <dimension ref="A1:M52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="5">
+        <v>100</v>
+      </c>
+      <c r="E2" s="5">
+        <v>100</v>
+      </c>
+      <c r="F2" s="5">
+        <v>100</v>
+      </c>
+      <c r="G2" s="5">
+        <v>100</v>
+      </c>
+      <c r="H2" s="5">
+        <v>100</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="M3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5"/>
+      <c r="M4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
+        <v>50</v>
+      </c>
+      <c r="F5" s="14">
+        <v>90</v>
+      </c>
+      <c r="G5" s="14">
+        <v>100</v>
+      </c>
+      <c r="H5" s="14">
+        <v>100</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="14">
+        <v>2020</v>
+      </c>
+      <c r="K5" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="L5" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="M6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="14"/>
+      <c r="M7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>10</v>
+      </c>
+      <c r="F8" s="12">
+        <v>40</v>
+      </c>
+      <c r="G8" s="12">
+        <v>100</v>
+      </c>
+      <c r="H8" s="12">
+        <v>100</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="12">
+        <v>2020</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="M8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>10</v>
+      </c>
+      <c r="F9" s="12">
+        <v>30</v>
+      </c>
+      <c r="G9" s="12">
+        <v>50</v>
+      </c>
+      <c r="H9" s="12">
+        <v>80</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="M9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
+        <v>10</v>
+      </c>
+      <c r="F10" s="13">
+        <v>100</v>
+      </c>
+      <c r="G10" s="13">
+        <v>100</v>
+      </c>
+      <c r="H10" s="13">
+        <v>100</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="M10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="16">
+        <v>5</v>
+      </c>
+      <c r="E11" s="16">
+        <v>10</v>
+      </c>
+      <c r="F11" s="16">
+        <v>12</v>
+      </c>
+      <c r="G11" s="16">
+        <v>15</v>
+      </c>
+      <c r="H11" s="16">
+        <v>20</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="16">
+        <v>2015</v>
+      </c>
+      <c r="K11" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="L11" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="M11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="16">
+        <v>5</v>
+      </c>
+      <c r="E12" s="16">
+        <v>10</v>
+      </c>
+      <c r="F12" s="16">
+        <v>10</v>
+      </c>
+      <c r="G12" s="16">
+        <v>12</v>
+      </c>
+      <c r="H12" s="16">
+        <v>15</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="M12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="17">
+        <v>5</v>
+      </c>
+      <c r="E13" s="17">
+        <v>10</v>
+      </c>
+      <c r="F13" s="17">
+        <v>15</v>
+      </c>
+      <c r="G13" s="17">
+        <v>20</v>
+      </c>
+      <c r="H13" s="17">
+        <v>20</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="M13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16">
+        <v>4</v>
+      </c>
+      <c r="G14" s="16">
+        <v>7</v>
+      </c>
+      <c r="H14" s="16">
+        <v>10</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="16">
+        <v>2020</v>
+      </c>
+      <c r="K14" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="L14" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
+        <v>1</v>
+      </c>
+      <c r="F15" s="16">
+        <v>2</v>
+      </c>
+      <c r="G15" s="16">
+        <v>3</v>
+      </c>
+      <c r="H15" s="16">
+        <v>4</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="M15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
+        <v>1</v>
+      </c>
+      <c r="F16" s="17">
+        <v>7</v>
+      </c>
+      <c r="G16" s="17">
+        <v>10</v>
+      </c>
+      <c r="H16" s="17">
+        <v>15</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="M16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="5">
+        <v>100</v>
+      </c>
+      <c r="E17" s="5">
+        <v>100</v>
+      </c>
+      <c r="F17" s="5">
+        <v>100</v>
+      </c>
+      <c r="G17" s="5">
+        <v>100</v>
+      </c>
+      <c r="H17" s="5">
+        <v>100</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="5">
+        <v>100</v>
+      </c>
+      <c r="E18" s="5">
+        <v>100</v>
+      </c>
+      <c r="F18" s="5">
+        <v>100</v>
+      </c>
+      <c r="G18" s="5">
+        <v>100</v>
+      </c>
+      <c r="H18" s="5">
+        <v>100</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="M18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="6">
+        <v>100</v>
+      </c>
+      <c r="E19" s="6">
+        <v>100</v>
+      </c>
+      <c r="F19" s="6">
+        <v>100</v>
+      </c>
+      <c r="G19" s="6">
+        <v>100</v>
+      </c>
+      <c r="H19" s="6">
+        <v>100</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="M19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="5">
+        <v>100</v>
+      </c>
+      <c r="E20" s="5">
+        <v>100</v>
+      </c>
+      <c r="F20" s="5">
+        <v>100</v>
+      </c>
+      <c r="G20" s="5">
+        <v>100</v>
+      </c>
+      <c r="H20" s="5">
+        <v>100</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" t="s">
+        <v>64</v>
+      </c>
+      <c r="M20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="5">
+        <v>100</v>
+      </c>
+      <c r="E21" s="5">
+        <v>100</v>
+      </c>
+      <c r="F21" s="5">
+        <v>100</v>
+      </c>
+      <c r="G21" s="5">
+        <v>100</v>
+      </c>
+      <c r="H21" s="5">
+        <v>100</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="M21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="6">
+        <v>100</v>
+      </c>
+      <c r="E22" s="6">
+        <v>100</v>
+      </c>
+      <c r="F22" s="6">
+        <v>100</v>
+      </c>
+      <c r="G22" s="6">
+        <v>100</v>
+      </c>
+      <c r="H22" s="6">
+        <v>100</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="M22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="5">
+        <v>10</v>
+      </c>
+      <c r="E23" s="5">
+        <v>20</v>
+      </c>
+      <c r="F23" s="5">
+        <v>30</v>
+      </c>
+      <c r="G23" s="5">
+        <v>30</v>
+      </c>
+      <c r="H23" s="5">
+        <v>50</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" s="5">
+        <v>2010</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="M23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="5">
+        <v>10</v>
+      </c>
+      <c r="E24" s="5">
+        <v>20</v>
+      </c>
+      <c r="F24" s="5">
+        <v>30</v>
+      </c>
+      <c r="G24" s="5">
+        <v>30</v>
+      </c>
+      <c r="H24" s="5">
+        <v>50</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="M24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="6">
+        <v>10</v>
+      </c>
+      <c r="E25" s="6">
+        <v>20</v>
+      </c>
+      <c r="F25" s="6">
+        <v>30</v>
+      </c>
+      <c r="G25" s="6">
+        <v>30</v>
+      </c>
+      <c r="H25" s="6">
+        <v>50</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="M25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0</v>
+      </c>
+      <c r="F26" s="12">
+        <v>5</v>
+      </c>
+      <c r="G26" s="12">
+        <v>30</v>
+      </c>
+      <c r="H26" s="12">
+        <v>50</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="12">
+        <v>2025</v>
+      </c>
+      <c r="K26" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="L26" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="M26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0</v>
+      </c>
+      <c r="F27" s="12">
+        <v>0</v>
+      </c>
+      <c r="G27" s="12">
+        <v>20</v>
+      </c>
+      <c r="H27" s="12">
+        <v>40</v>
+      </c>
+      <c r="I27" s="12"/>
+      <c r="M27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="13">
+        <v>0</v>
+      </c>
+      <c r="E28" s="13">
+        <v>0</v>
+      </c>
+      <c r="F28" s="13">
+        <v>25</v>
+      </c>
+      <c r="G28" s="13">
+        <v>50</v>
+      </c>
+      <c r="H28" s="13">
+        <v>60</v>
+      </c>
+      <c r="I28" s="12"/>
+      <c r="M28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0</v>
+      </c>
+      <c r="F29" s="12">
+        <v>5</v>
+      </c>
+      <c r="G29" s="12">
+        <v>30</v>
+      </c>
+      <c r="H29" s="12">
+        <v>60</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" s="12">
+        <v>2025</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="L29" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="M29">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0</v>
+      </c>
+      <c r="F30" s="12">
+        <v>0</v>
+      </c>
+      <c r="G30" s="12">
+        <v>10</v>
+      </c>
+      <c r="H30" s="12">
+        <v>30</v>
+      </c>
+      <c r="I30" s="12"/>
+      <c r="M30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="13">
+        <v>0</v>
+      </c>
+      <c r="E31" s="13">
+        <v>0</v>
+      </c>
+      <c r="F31" s="13">
+        <v>15</v>
+      </c>
+      <c r="G31" s="13">
+        <v>45</v>
+      </c>
+      <c r="H31" s="13">
+        <v>80</v>
+      </c>
+      <c r="I31" s="12"/>
+      <c r="M31">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="16">
+        <v>0</v>
+      </c>
+      <c r="E32" s="16">
+        <v>0</v>
+      </c>
+      <c r="F32" s="16">
+        <v>5</v>
+      </c>
+      <c r="G32" s="16">
+        <v>80</v>
+      </c>
+      <c r="H32" s="16">
+        <v>100</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" s="16">
+        <v>2028</v>
+      </c>
+      <c r="K32" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="L32" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="M32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="16">
+        <v>0</v>
+      </c>
+      <c r="E33" s="16">
+        <v>0</v>
+      </c>
+      <c r="F33" s="16">
+        <v>5</v>
+      </c>
+      <c r="G33" s="16">
+        <v>30</v>
+      </c>
+      <c r="H33" s="16">
+        <v>60</v>
+      </c>
+      <c r="I33" s="16"/>
+      <c r="M33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="17">
+        <v>0</v>
+      </c>
+      <c r="E34" s="17">
+        <v>0</v>
+      </c>
+      <c r="F34" s="17">
+        <v>5</v>
+      </c>
+      <c r="G34" s="17">
+        <v>100</v>
+      </c>
+      <c r="H34" s="17">
+        <v>100</v>
+      </c>
+      <c r="I34" s="16"/>
+      <c r="M34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="16">
+        <v>0</v>
+      </c>
+      <c r="E35" s="16">
+        <v>0</v>
+      </c>
+      <c r="F35" s="16">
+        <v>5</v>
+      </c>
+      <c r="G35" s="16">
+        <v>80</v>
+      </c>
+      <c r="H35" s="16">
+        <v>100</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J35" s="16">
+        <v>2028</v>
+      </c>
+      <c r="K35" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="L35" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="M35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="16">
+        <v>0</v>
+      </c>
+      <c r="E36" s="16">
+        <v>0</v>
+      </c>
+      <c r="F36" s="16">
+        <v>5</v>
+      </c>
+      <c r="G36" s="16">
+        <v>30</v>
+      </c>
+      <c r="H36" s="16">
+        <v>60</v>
+      </c>
+      <c r="I36" s="16"/>
+      <c r="M36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="17">
+        <v>0</v>
+      </c>
+      <c r="E37" s="17">
+        <v>0</v>
+      </c>
+      <c r="F37" s="17">
+        <v>5</v>
+      </c>
+      <c r="G37" s="17">
+        <v>100</v>
+      </c>
+      <c r="H37" s="17">
+        <v>100</v>
+      </c>
+      <c r="I37" s="16"/>
+      <c r="M37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="5">
+        <v>100</v>
+      </c>
+      <c r="E38" s="5">
+        <v>100</v>
+      </c>
+      <c r="F38" s="5">
+        <v>100</v>
+      </c>
+      <c r="G38" s="5">
+        <v>100</v>
+      </c>
+      <c r="H38" s="5">
+        <v>100</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J38" t="s">
+        <v>64</v>
+      </c>
+      <c r="K38" t="s">
+        <v>64</v>
+      </c>
+      <c r="L38" t="s">
+        <v>64</v>
+      </c>
+      <c r="M38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="5">
+        <v>100</v>
+      </c>
+      <c r="E39" s="5">
+        <v>100</v>
+      </c>
+      <c r="F39" s="5">
+        <v>100</v>
+      </c>
+      <c r="G39" s="5">
+        <v>100</v>
+      </c>
+      <c r="H39" s="5">
+        <v>100</v>
+      </c>
+      <c r="I39" s="5"/>
+      <c r="M39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="6">
+        <v>100</v>
+      </c>
+      <c r="E40" s="6">
+        <v>100</v>
+      </c>
+      <c r="F40" s="6">
+        <v>100</v>
+      </c>
+      <c r="G40" s="6">
+        <v>100</v>
+      </c>
+      <c r="H40" s="6">
+        <v>100</v>
+      </c>
+      <c r="I40" s="5"/>
+      <c r="M40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="5">
+        <v>100</v>
+      </c>
+      <c r="E41" s="5">
+        <v>100</v>
+      </c>
+      <c r="F41" s="5">
+        <v>100</v>
+      </c>
+      <c r="G41" s="5">
+        <v>100</v>
+      </c>
+      <c r="H41" s="5">
+        <v>100</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J41" t="s">
+        <v>64</v>
+      </c>
+      <c r="K41" t="s">
+        <v>64</v>
+      </c>
+      <c r="L41" t="s">
+        <v>64</v>
+      </c>
+      <c r="M41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="5">
+        <v>100</v>
+      </c>
+      <c r="E42" s="5">
+        <v>100</v>
+      </c>
+      <c r="F42" s="5">
+        <v>100</v>
+      </c>
+      <c r="G42" s="5">
+        <v>100</v>
+      </c>
+      <c r="H42" s="5">
+        <v>100</v>
+      </c>
+      <c r="I42" s="5"/>
+      <c r="M42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="6">
+        <v>100</v>
+      </c>
+      <c r="E43" s="6">
+        <v>100</v>
+      </c>
+      <c r="F43" s="6">
+        <v>100</v>
+      </c>
+      <c r="G43" s="6">
+        <v>100</v>
+      </c>
+      <c r="H43" s="6">
+        <v>100</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="M43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="14">
+        <v>0</v>
+      </c>
+      <c r="E44" s="14">
+        <v>0</v>
+      </c>
+      <c r="F44" s="14">
+        <v>10</v>
+      </c>
+      <c r="G44" s="14">
+        <v>30</v>
+      </c>
+      <c r="H44" s="14">
+        <v>50</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J44" s="14">
+        <v>2025</v>
+      </c>
+      <c r="K44" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="L44" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="M44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="14">
+        <v>0</v>
+      </c>
+      <c r="E45" s="14">
+        <v>0</v>
+      </c>
+      <c r="F45" s="14">
+        <v>0</v>
+      </c>
+      <c r="G45" s="14">
+        <v>10</v>
+      </c>
+      <c r="H45" s="14">
+        <v>30</v>
+      </c>
+      <c r="I45" s="14"/>
+      <c r="M45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="15">
+        <v>0</v>
+      </c>
+      <c r="E46" s="15">
+        <v>0</v>
+      </c>
+      <c r="F46" s="15">
+        <v>30</v>
+      </c>
+      <c r="G46" s="15">
+        <v>50</v>
+      </c>
+      <c r="H46" s="15">
+        <v>70</v>
+      </c>
+      <c r="I46" s="14"/>
+      <c r="M46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="12">
+        <v>0</v>
+      </c>
+      <c r="E47" s="12">
+        <v>0</v>
+      </c>
+      <c r="F47" s="12">
+        <v>1</v>
+      </c>
+      <c r="G47" s="12">
+        <v>3</v>
+      </c>
+      <c r="H47" s="12">
+        <v>5</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J47" s="12">
+        <v>2028</v>
+      </c>
+      <c r="K47" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="L47" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="M47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="12">
+        <v>0</v>
+      </c>
+      <c r="E48" s="12">
+        <v>0</v>
+      </c>
+      <c r="F48" s="12">
+        <v>0</v>
+      </c>
+      <c r="G48" s="12">
+        <v>1</v>
+      </c>
+      <c r="H48" s="12">
+        <v>3</v>
+      </c>
+      <c r="I48" s="12"/>
+      <c r="M48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="13">
+        <v>0</v>
+      </c>
+      <c r="E49" s="13">
+        <v>0</v>
+      </c>
+      <c r="F49" s="13">
+        <v>3</v>
+      </c>
+      <c r="G49" s="13">
+        <v>5</v>
+      </c>
+      <c r="H49" s="13">
+        <v>9</v>
+      </c>
+      <c r="I49" s="12"/>
+      <c r="M49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="16">
+        <v>0</v>
+      </c>
+      <c r="E50" s="16">
+        <v>0</v>
+      </c>
+      <c r="F50" s="16">
+        <v>2</v>
+      </c>
+      <c r="G50" s="16">
+        <v>6</v>
+      </c>
+      <c r="H50" s="16">
+        <v>10</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J50" s="16">
+        <v>2025</v>
+      </c>
+      <c r="K50" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="L50" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="M50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="16">
+        <v>0</v>
+      </c>
+      <c r="E51" s="16">
+        <v>0</v>
+      </c>
+      <c r="F51" s="16">
+        <v>0</v>
+      </c>
+      <c r="G51" s="16">
+        <v>2</v>
+      </c>
+      <c r="H51" s="16">
+        <v>5</v>
+      </c>
+      <c r="I51" s="16"/>
+      <c r="M51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="17">
+        <v>0</v>
+      </c>
+      <c r="E52" s="17">
+        <v>0</v>
+      </c>
+      <c r="F52" s="17">
+        <v>6</v>
+      </c>
+      <c r="G52" s="17">
+        <v>10</v>
+      </c>
+      <c r="H52" s="17">
+        <v>14</v>
+      </c>
+      <c r="I52" s="16"/>
+      <c r="M52">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEC8D20-7A52-476E-9A3F-F3ABE0AF0748}">
+  <dimension ref="A1:T18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="5">
+        <v>100</v>
+      </c>
+      <c r="H2" s="25">
+        <f>$Q$2</f>
+        <v>0.5</v>
+      </c>
+      <c r="I2" s="24">
+        <f>$G$2</f>
+        <v>100</v>
+      </c>
+      <c r="J2" s="24">
+        <f t="shared" ref="J2:M2" si="0">$G$2</f>
+        <v>100</v>
+      </c>
+      <c r="K2" s="24">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L2" s="24">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="M2" s="24">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="Q2" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="T2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="14">
+        <v>2020</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="14">
+        <v>100</v>
+      </c>
+      <c r="H3" s="26">
+        <f t="shared" ref="H3:H18" si="1">$Q$2</f>
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="24">
+        <f>$G3*((1-EXP(-($E3+$F3)*MAX(I$1-$D3,0)))/(1+($F3/$E3)*EXP(-($E3+$F3)*MAX(I$1-$D3))))</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="24">
+        <f t="shared" ref="J3:M18" si="2">$G3*((1-EXP(-($E3+$F3)*MAX(J$1-$D3,0)))/(1+($F3/$E3)*EXP(-($E3+$F3)*MAX(J$1-$D3))))</f>
+        <v>42.679226553054164</v>
+      </c>
+      <c r="K3" s="24">
+        <f t="shared" si="2"/>
+        <v>91.858809388636558</v>
+      </c>
+      <c r="L3" s="24">
+        <f t="shared" si="2"/>
+        <v>99.955999987886514</v>
+      </c>
+      <c r="M3" s="24">
+        <f t="shared" si="2"/>
+        <v>99.999780279057944</v>
+      </c>
+      <c r="T3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="12">
+        <v>2020</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="12">
+        <v>100</v>
+      </c>
+      <c r="H4" s="27">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="24">
+        <f t="shared" ref="I4:I18" si="3">$G4*((1-EXP(-($E4+$F4)*MAX(I$1-$D4,0)))/(1+($F4/$E4)*EXP(-($E4+$F4)*MAX(I$1-$D4))))</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="24">
+        <f t="shared" si="2"/>
+        <v>15.411722829867564</v>
+      </c>
+      <c r="K4" s="24">
+        <f t="shared" si="2"/>
+        <v>42.181381367602278</v>
+      </c>
+      <c r="L4" s="24">
+        <f t="shared" si="2"/>
+        <v>87.971683418012475</v>
+      </c>
+      <c r="M4" s="24">
+        <f t="shared" si="2"/>
+        <v>98.523678563648915</v>
+      </c>
+      <c r="T4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="16">
+        <v>2015</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="16">
+        <v>20</v>
+      </c>
+      <c r="H5" s="28">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="24">
+        <f t="shared" si="3"/>
+        <v>2.4101567986281616</v>
+      </c>
+      <c r="J5" s="24">
+        <f t="shared" si="2"/>
+        <v>5.5771257646543857</v>
+      </c>
+      <c r="K5" s="24">
+        <f t="shared" si="2"/>
+        <v>9.139925016931258</v>
+      </c>
+      <c r="L5" s="24">
+        <f t="shared" si="2"/>
+        <v>15.216367089632485</v>
+      </c>
+      <c r="M5" s="24">
+        <f t="shared" si="2"/>
+        <v>18.326040707377075</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="16">
+        <v>2020</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="G6" s="16">
+        <v>10</v>
+      </c>
+      <c r="H6" s="28">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="24">
+        <f t="shared" si="2"/>
+        <v>1.361478589715617</v>
+      </c>
+      <c r="K6" s="24">
+        <f t="shared" si="2"/>
+        <v>3.4484087661554712</v>
+      </c>
+      <c r="L6" s="24">
+        <f t="shared" si="2"/>
+        <v>7.7311613012867291</v>
+      </c>
+      <c r="M6" s="24">
+        <f t="shared" si="2"/>
+        <v>9.5044364808083692</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="5">
+        <v>100</v>
+      </c>
+      <c r="H7" s="25">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="24">
+        <f>$G$7</f>
+        <v>100</v>
+      </c>
+      <c r="J7" s="24">
+        <f t="shared" ref="J7:M7" si="4">$G$7</f>
+        <v>100</v>
+      </c>
+      <c r="K7" s="24">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="L7" s="24">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="M7" s="24">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="5">
+        <v>100</v>
+      </c>
+      <c r="H8" s="25">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="24">
+        <f>$G$8</f>
+        <v>100</v>
+      </c>
+      <c r="J8" s="24">
+        <f t="shared" ref="J8:M8" si="5">$G$8</f>
+        <v>100</v>
+      </c>
+      <c r="K8" s="24">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="L8" s="24">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="M8" s="24">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2010</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>50</v>
+      </c>
+      <c r="H9" s="25">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="24">
+        <f t="shared" si="3"/>
+        <v>13.942814411635965</v>
+      </c>
+      <c r="J9" s="24">
+        <f t="shared" si="2"/>
+        <v>22.849812542328145</v>
+      </c>
+      <c r="K9" s="24">
+        <f t="shared" si="2"/>
+        <v>31.277120536322322</v>
+      </c>
+      <c r="L9" s="24">
+        <f t="shared" si="2"/>
+        <v>42.788155458708573</v>
+      </c>
+      <c r="M9" s="24">
+        <f t="shared" si="2"/>
+        <v>47.628653782953698</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="12">
+        <v>2025</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="12">
+        <v>50</v>
+      </c>
+      <c r="H10" s="27">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="24">
+        <f t="shared" si="2"/>
+        <v>7.7058614149337821</v>
+      </c>
+      <c r="L10" s="24">
+        <f t="shared" si="2"/>
+        <v>35.180250825713841</v>
+      </c>
+      <c r="M10" s="24">
+        <f t="shared" si="2"/>
+        <v>47.840528378302047</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="12">
+        <v>2025</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="G11" s="12">
+        <v>60</v>
+      </c>
+      <c r="H11" s="27">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="24">
+        <f t="shared" si="2"/>
+        <v>8.1688715382937023</v>
+      </c>
+      <c r="L11" s="24">
+        <f t="shared" si="2"/>
+        <v>34.885635812064592</v>
+      </c>
+      <c r="M11" s="24">
+        <f t="shared" si="2"/>
+        <v>53.428293406629052</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="16">
+        <v>2028</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G12" s="16">
+        <v>100</v>
+      </c>
+      <c r="H12" s="28">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="24">
+        <f t="shared" si="2"/>
+        <v>7.8324976942203932</v>
+      </c>
+      <c r="L12" s="24">
+        <f t="shared" si="2"/>
+        <v>82.387974776626365</v>
+      </c>
+      <c r="M12" s="24">
+        <f t="shared" si="2"/>
+        <v>99.231981162990849</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="16">
+        <v>2028</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G13" s="16">
+        <v>100</v>
+      </c>
+      <c r="H13" s="28">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="24">
+        <f t="shared" si="2"/>
+        <v>7.8324976942203932</v>
+      </c>
+      <c r="L13" s="24">
+        <f t="shared" si="2"/>
+        <v>82.387974776626365</v>
+      </c>
+      <c r="M13" s="24">
+        <f t="shared" si="2"/>
+        <v>99.231981162990849</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="5">
+        <v>100</v>
+      </c>
+      <c r="H14" s="25">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="24">
+        <f>$G$14</f>
+        <v>100</v>
+      </c>
+      <c r="J14" s="24">
+        <f t="shared" ref="J14:L14" si="6">$G$14</f>
+        <v>100</v>
+      </c>
+      <c r="K14" s="24">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="L14" s="24">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="M14" s="24">
+        <f>$G$14</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="5">
+        <v>100</v>
+      </c>
+      <c r="H15" s="25">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="24">
+        <f>$G$15</f>
+        <v>100</v>
+      </c>
+      <c r="J15" s="24">
+        <f t="shared" ref="J15:M15" si="7">$G$15</f>
+        <v>100</v>
+      </c>
+      <c r="K15" s="24">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="L15" s="24">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="M15" s="24">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="14">
+        <v>2025</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="G16" s="14">
+        <v>100</v>
+      </c>
+      <c r="H16" s="26">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="24">
+        <f t="shared" si="2"/>
+        <v>15.411722829867564</v>
+      </c>
+      <c r="L16" s="24">
+        <f t="shared" si="2"/>
+        <v>70.360501651427683</v>
+      </c>
+      <c r="M16" s="24">
+        <f t="shared" si="2"/>
+        <v>95.681056756604093</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="12">
+        <v>2028</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="G17" s="12">
+        <v>20</v>
+      </c>
+      <c r="H17" s="27">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="24">
+        <f t="shared" si="2"/>
+        <v>0.82335631318545288</v>
+      </c>
+      <c r="L17" s="24">
+        <f t="shared" si="2"/>
+        <v>5.4662237455205522</v>
+      </c>
+      <c r="M17" s="24">
+        <f t="shared" si="2"/>
+        <v>10.229727402074349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="16">
+        <v>2025</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="G18" s="16">
+        <v>15</v>
+      </c>
+      <c r="H18" s="28">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="24">
+        <f t="shared" si="2"/>
+        <v>2.0422178845734256</v>
+      </c>
+      <c r="L18" s="24">
+        <f t="shared" si="2"/>
+        <v>8.721408953016148</v>
+      </c>
+      <c r="M18" s="24">
+        <f t="shared" si="2"/>
+        <v>13.357073351657263</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B18F167-6DBA-4198-BA06-95A49D6CEE47}">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -3195,7 +5892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L460"/>
   <sheetViews>

--- a/Data/technological_maturity_readiness.xlsx
+++ b/Data/technological_maturity_readiness.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\egbertrv\Documents\GitHub\AIM_Norwegian_Freight_Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9174201D-D903-4452-9167-1510BF02857C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5C66B4-F855-4C0E-A3F8-491073ADB7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="37">
   <si>
     <t>Mode</t>
   </si>
@@ -88,12 +88,6 @@
   </si>
   <si>
     <t>Battery train</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2025</t>
   </si>
   <si>
     <t>2030</t>
@@ -709,7 +703,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -735,6 +729,9 @@
     <xf numFmtId="9" fontId="0" fillId="36" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="39" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1094,7 +1091,7 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,46 +1110,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="25">
+        <v>2022</v>
+      </c>
+      <c r="K1" s="25">
+        <v>2026</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -1163,16 +1160,16 @@
         <v>3</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G2" s="3">
         <v>100</v>
@@ -1216,7 +1213,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" s="10">
         <v>2020</v>
@@ -1239,11 +1236,11 @@
       </c>
       <c r="J3" s="18">
         <f>$G3*((1-EXP(-($E3+$F3)*MAX(J$1-$D3,0)))/(1+($F3/$E3)*EXP(-($E3+$F3)*MAX(J$1-$D3))))</f>
-        <v>0</v>
+        <v>9.6474574562864284</v>
       </c>
       <c r="K3" s="18">
         <f t="shared" ref="K3:N18" si="2">$G3*((1-EXP(-($E3+$F3)*MAX(K$1-$D3,0)))/(1+($F3/$E3)*EXP(-($E3+$F3)*MAX(K$1-$D3))))</f>
-        <v>42.679226553054164</v>
+        <v>56.607264701041494</v>
       </c>
       <c r="L3" s="18">
         <f t="shared" si="2"/>
@@ -1266,7 +1263,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" s="9">
         <v>2020</v>
@@ -1289,11 +1286,11 @@
       </c>
       <c r="J4" s="18">
         <f t="shared" ref="J4:J18" si="3">$G4*((1-EXP(-($E4+$F4)*MAX(J$1-$D4,0)))/(1+($F4/$E4)*EXP(-($E4+$F4)*MAX(J$1-$D4))))</f>
-        <v>0</v>
+        <v>4.7842225034986816</v>
       </c>
       <c r="K4" s="18">
         <f t="shared" si="2"/>
-        <v>15.411722829867564</v>
+        <v>19.961706055232963</v>
       </c>
       <c r="L4" s="18">
         <f t="shared" si="2"/>
@@ -1316,7 +1313,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" s="11">
         <v>2015</v>
@@ -1339,11 +1336,11 @@
       </c>
       <c r="J5" s="18">
         <f t="shared" si="3"/>
-        <v>2.4101567986281616</v>
+        <v>3.5984170311813433</v>
       </c>
       <c r="K5" s="18">
         <f t="shared" si="2"/>
-        <v>5.5771257646543857</v>
+        <v>6.2753955434327278</v>
       </c>
       <c r="L5" s="18">
         <f t="shared" si="2"/>
@@ -1366,7 +1363,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" s="11">
         <v>2020</v>
@@ -1389,11 +1386,11 @@
       </c>
       <c r="J6" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.45474449618626511</v>
       </c>
       <c r="K6" s="18">
         <f t="shared" si="2"/>
-        <v>1.361478589715617</v>
+        <v>1.7260402481457908</v>
       </c>
       <c r="L6" s="18">
         <f t="shared" si="2"/>
@@ -1416,16 +1413,16 @@
         <v>9</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7" s="3">
         <v>100</v>
@@ -1466,16 +1463,16 @@
         <v>10</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
@@ -1516,7 +1513,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" s="3">
         <v>2010</v>
@@ -1539,11 +1536,11 @@
       </c>
       <c r="J9" s="18">
         <f t="shared" si="3"/>
-        <v>13.942814411635965</v>
+        <v>17.464494442273157</v>
       </c>
       <c r="K9" s="18">
         <f t="shared" si="2"/>
-        <v>22.849812542328145</v>
+        <v>24.621347263899171</v>
       </c>
       <c r="L9" s="18">
         <f t="shared" si="2"/>
@@ -1566,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" s="9">
         <v>2025</v>
@@ -1593,7 +1590,7 @@
       </c>
       <c r="K10" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.094055893812705</v>
       </c>
       <c r="L10" s="18">
         <f t="shared" si="2"/>
@@ -1616,7 +1613,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="9">
         <v>2025</v>
@@ -1643,7 +1640,7 @@
       </c>
       <c r="K11" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.2801267508223035</v>
       </c>
       <c r="L11" s="18">
         <f t="shared" si="2"/>
@@ -1666,7 +1663,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="11">
         <v>2028</v>
@@ -1716,7 +1713,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13" s="11">
         <v>2028</v>
@@ -1766,16 +1763,16 @@
         <v>3</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G14" s="3">
         <v>100</v>
@@ -1816,16 +1813,16 @@
         <v>15</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
@@ -1866,7 +1863,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" s="10">
         <v>2025</v>
@@ -1893,7 +1890,7 @@
       </c>
       <c r="K16" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.1881117876254099</v>
       </c>
       <c r="L16" s="18">
         <f t="shared" si="2"/>
@@ -1916,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17" s="9">
         <v>2028</v>
@@ -1966,7 +1963,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" s="11">
         <v>2025</v>
@@ -1993,7 +1990,7 @@
       </c>
       <c r="K18" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.32003168770557588</v>
       </c>
       <c r="L18" s="18">
         <f t="shared" si="2"/>
@@ -2036,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2047,7 +2044,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2055,10 +2052,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2069,7 +2066,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2080,7 +2077,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2091,7 +2088,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2102,7 +2099,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2113,7 +2110,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2124,7 +2121,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2135,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2146,7 +2143,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2157,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2168,7 +2165,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2179,7 +2176,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2190,7 +2187,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">

--- a/Data/technological_maturity_readiness.xlsx
+++ b/Data/technological_maturity_readiness.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\egbertrv\Documents\GitHub\AIM_Norwegian_Freight_Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5C66B4-F855-4C0E-A3F8-491073ADB7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB8F6C7-D552-4581-8C98-A745D1B27D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5520" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="technological_readiness_bass" sheetId="6" r:id="rId1"/>
@@ -1091,7 +1091,7 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,7 +1179,7 @@
         <v>0.5</v>
       </c>
       <c r="I2" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J2" s="18">
         <f>$G$2</f>
@@ -1232,7 +1232,7 @@
         <v>0.5</v>
       </c>
       <c r="I3" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J3" s="18">
         <f>$G3*((1-EXP(-($E3+$F3)*MAX(J$1-$D3,0)))/(1+($F3/$E3)*EXP(-($E3+$F3)*MAX(J$1-$D3))))</f>
@@ -1282,7 +1282,7 @@
         <v>0.5</v>
       </c>
       <c r="I4" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J4" s="18">
         <f t="shared" ref="J4:J18" si="3">$G4*((1-EXP(-($E4+$F4)*MAX(J$1-$D4,0)))/(1+($F4/$E4)*EXP(-($E4+$F4)*MAX(J$1-$D4))))</f>
@@ -1332,7 +1332,7 @@
         <v>0.5</v>
       </c>
       <c r="I5" s="11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" s="18">
         <f t="shared" si="3"/>
@@ -1382,7 +1382,7 @@
         <v>0.5</v>
       </c>
       <c r="I6" s="11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J6" s="18">
         <f t="shared" si="3"/>
@@ -1432,7 +1432,7 @@
         <v>0.5</v>
       </c>
       <c r="I7" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J7" s="18">
         <f>$G$7</f>
@@ -1482,7 +1482,7 @@
         <v>0.5</v>
       </c>
       <c r="I8" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J8" s="18">
         <f>$G$8</f>
@@ -1532,7 +1532,7 @@
         <v>0.5</v>
       </c>
       <c r="I9" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J9" s="18">
         <f t="shared" si="3"/>
@@ -1582,7 +1582,7 @@
         <v>0.5</v>
       </c>
       <c r="I10" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J10" s="18">
         <f t="shared" si="3"/>
@@ -1632,7 +1632,7 @@
         <v>0.5</v>
       </c>
       <c r="I11" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" si="3"/>
@@ -1682,7 +1682,7 @@
         <v>0.5</v>
       </c>
       <c r="I12" s="11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J12" s="18">
         <f t="shared" si="3"/>
@@ -1732,7 +1732,7 @@
         <v>0.5</v>
       </c>
       <c r="I13" s="11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J13" s="18">
         <f t="shared" si="3"/>
@@ -1782,7 +1782,7 @@
         <v>0.5</v>
       </c>
       <c r="I14" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J14" s="18">
         <f>$G$14</f>
@@ -1832,7 +1832,7 @@
         <v>0.5</v>
       </c>
       <c r="I15" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J15" s="18">
         <f>$G$15</f>
@@ -1882,7 +1882,7 @@
         <v>0.5</v>
       </c>
       <c r="I16" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J16" s="18">
         <f t="shared" si="3"/>
@@ -1932,7 +1932,7 @@
         <v>0.5</v>
       </c>
       <c r="I17" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J17" s="18">
         <f t="shared" si="3"/>
@@ -1982,7 +1982,7 @@
         <v>0.5</v>
       </c>
       <c r="I18" s="11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" si="3"/>

--- a/Data/technological_maturity_readiness.xlsx
+++ b/Data/technological_maturity_readiness.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\egbertrv\Documents\GitHub\AIM_Norwegian_Freight_Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB8F6C7-D552-4581-8C98-A745D1B27D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDEADF1-3C78-4E40-BB3D-611F704DB140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="technological_readiness_bass" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="38">
   <si>
     <t>Mode</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>t_0_delay</t>
+  </si>
+  <si>
+    <t>Note: keep t_0_delay at zero! (no longer used)\</t>
   </si>
 </sst>
 </file>
@@ -1088,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEC8D20-7A52-476E-9A3F-F3ABE0AF0748}">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,10 +1102,11 @@
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.28515625" customWidth="1"/>
     <col min="18" max="18" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1148,11 +1152,11 @@
       <c r="R1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="U1" t="s">
+      <c r="S1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1204,8 +1208,11 @@
       <c r="R2" s="23">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -1228,7 +1235,7 @@
         <v>100</v>
       </c>
       <c r="H3" s="20">
-        <f t="shared" ref="H3:H18" si="1">$R$2</f>
+        <f>$R$2</f>
         <v>0.5</v>
       </c>
       <c r="I3" s="10">
@@ -1239,23 +1246,23 @@
         <v>9.6474574562864284</v>
       </c>
       <c r="K3" s="18">
-        <f t="shared" ref="K3:N18" si="2">$G3*((1-EXP(-($E3+$F3)*MAX(K$1-$D3,0)))/(1+($F3/$E3)*EXP(-($E3+$F3)*MAX(K$1-$D3))))</f>
+        <f t="shared" ref="K3:N18" si="1">$G3*((1-EXP(-($E3+$F3)*MAX(K$1-$D3,0)))/(1+($F3/$E3)*EXP(-($E3+$F3)*MAX(K$1-$D3))))</f>
         <v>56.607264701041494</v>
       </c>
       <c r="L3" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>91.858809388636558</v>
       </c>
       <c r="M3" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>99.955999987886514</v>
       </c>
       <c r="N3" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>99.999780279057944</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
@@ -1278,34 +1285,34 @@
         <v>100</v>
       </c>
       <c r="H4" s="21">
-        <f t="shared" si="1"/>
+        <f>$R$2</f>
         <v>0.5</v>
       </c>
       <c r="I4" s="9">
         <v>0</v>
       </c>
       <c r="J4" s="18">
-        <f t="shared" ref="J4:J18" si="3">$G4*((1-EXP(-($E4+$F4)*MAX(J$1-$D4,0)))/(1+($F4/$E4)*EXP(-($E4+$F4)*MAX(J$1-$D4))))</f>
+        <f t="shared" ref="J4:J18" si="2">$G4*((1-EXP(-($E4+$F4)*MAX(J$1-$D4,0)))/(1+($F4/$E4)*EXP(-($E4+$F4)*MAX(J$1-$D4))))</f>
         <v>4.7842225034986816</v>
       </c>
       <c r="K4" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19.961706055232963</v>
       </c>
       <c r="L4" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42.181381367602278</v>
       </c>
       <c r="M4" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>87.971683418012475</v>
       </c>
       <c r="N4" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>98.523678563648915</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
@@ -1328,34 +1335,34 @@
         <v>20</v>
       </c>
       <c r="H5" s="22">
-        <f t="shared" si="1"/>
+        <f>$R$2</f>
         <v>0.5</v>
       </c>
       <c r="I5" s="11">
         <v>0</v>
       </c>
       <c r="J5" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.5984170311813433</v>
       </c>
       <c r="K5" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.2753955434327278</v>
       </c>
       <c r="L5" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.139925016931258</v>
       </c>
       <c r="M5" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15.216367089632485</v>
       </c>
       <c r="N5" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18.326040707377075</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
@@ -1378,34 +1385,34 @@
         <v>10</v>
       </c>
       <c r="H6" s="22">
-        <f t="shared" si="1"/>
+        <f>$R$2</f>
         <v>0.5</v>
       </c>
       <c r="I6" s="11">
         <v>0</v>
       </c>
       <c r="J6" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.45474449618626511</v>
       </c>
       <c r="K6" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.7260402481457908</v>
       </c>
       <c r="L6" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.4484087661554712</v>
       </c>
       <c r="M6" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.7311613012867291</v>
       </c>
       <c r="N6" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.5044364808083692</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1428,7 +1435,7 @@
         <v>100</v>
       </c>
       <c r="H7" s="19">
-        <f t="shared" si="1"/>
+        <f>$R$2</f>
         <v>0.5</v>
       </c>
       <c r="I7" s="3">
@@ -1439,23 +1446,23 @@
         <v>100</v>
       </c>
       <c r="K7" s="18">
-        <f t="shared" ref="K7:N7" si="4">$G$7</f>
+        <f t="shared" ref="K7:N7" si="3">$G$7</f>
         <v>100</v>
       </c>
       <c r="L7" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="M7" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="N7" s="18">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1478,7 +1485,7 @@
         <v>100</v>
       </c>
       <c r="H8" s="19">
-        <f t="shared" si="1"/>
+        <f>$R$2</f>
         <v>0.5</v>
       </c>
       <c r="I8" s="3">
@@ -1489,23 +1496,23 @@
         <v>100</v>
       </c>
       <c r="K8" s="18">
-        <f t="shared" ref="K8:N8" si="5">$G$8</f>
+        <f t="shared" ref="K8:N8" si="4">$G$8</f>
         <v>100</v>
       </c>
       <c r="L8" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="M8" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="N8" s="18">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1528,34 +1535,34 @@
         <v>50</v>
       </c>
       <c r="H9" s="19">
-        <f t="shared" si="1"/>
+        <f>$R$2</f>
         <v>0.5</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>17.464494442273157</v>
       </c>
       <c r="K9" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24.621347263899171</v>
       </c>
       <c r="L9" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>31.277120536322322</v>
       </c>
       <c r="M9" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42.788155458708573</v>
       </c>
       <c r="N9" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>47.628653782953698</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
@@ -1566,7 +1573,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="9">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="E10" s="9">
         <v>0.02</v>
@@ -1578,34 +1585,34 @@
         <v>50</v>
       </c>
       <c r="H10" s="21">
-        <f t="shared" si="1"/>
+        <f>$R$2</f>
         <v>0.5</v>
       </c>
       <c r="I10" s="9">
         <v>0</v>
       </c>
       <c r="J10" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="18">
-        <f t="shared" si="2"/>
-        <v>1.094055893812705</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="L10" s="18">
-        <f t="shared" si="2"/>
-        <v>7.7058614149337821</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M10" s="18">
-        <f t="shared" si="2"/>
-        <v>35.180250825713841</v>
+        <f t="shared" si="1"/>
+        <v>21.090690683801139</v>
       </c>
       <c r="N10" s="18">
-        <f t="shared" si="2"/>
-        <v>47.840528378302047</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>43.985841709006237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
@@ -1616,7 +1623,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="9">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="E11" s="9">
         <v>0.02</v>
@@ -1628,34 +1635,34 @@
         <v>60</v>
       </c>
       <c r="H11" s="21">
-        <f t="shared" si="1"/>
+        <f>$R$2</f>
         <v>0.5</v>
       </c>
       <c r="I11" s="9">
         <v>0</v>
       </c>
       <c r="J11" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="18">
-        <f t="shared" si="2"/>
-        <v>1.2801267508223035</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="L11" s="18">
-        <f t="shared" si="2"/>
-        <v>8.1688715382937023</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M11" s="18">
-        <f t="shared" si="2"/>
-        <v>34.885635812064592</v>
+        <f t="shared" si="1"/>
+        <v>20.690452596932829</v>
       </c>
       <c r="N11" s="18">
-        <f t="shared" si="2"/>
-        <v>53.428293406629052</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>46.386967807720374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
@@ -1678,34 +1685,34 @@
         <v>100</v>
       </c>
       <c r="H12" s="22">
-        <f t="shared" si="1"/>
+        <f>$R$2</f>
         <v>0.5</v>
       </c>
       <c r="I12" s="11">
         <v>0</v>
       </c>
       <c r="J12" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K12" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L12" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.8324976942203932</v>
       </c>
       <c r="M12" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>82.387974776626365</v>
       </c>
       <c r="N12" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>99.231981162990849</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>8</v>
       </c>
@@ -1728,34 +1735,34 @@
         <v>100</v>
       </c>
       <c r="H13" s="22">
-        <f t="shared" si="1"/>
+        <f>$R$2</f>
         <v>0.5</v>
       </c>
       <c r="I13" s="11">
         <v>0</v>
       </c>
       <c r="J13" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K13" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L13" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.8324976942203932</v>
       </c>
       <c r="M13" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>82.387974776626365</v>
       </c>
       <c r="N13" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>99.231981162990849</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1778,7 +1785,7 @@
         <v>100</v>
       </c>
       <c r="H14" s="19">
-        <f t="shared" si="1"/>
+        <f>$R$2</f>
         <v>0.5</v>
       </c>
       <c r="I14" s="3">
@@ -1789,15 +1796,15 @@
         <v>100</v>
       </c>
       <c r="K14" s="18">
-        <f t="shared" ref="K14:M14" si="6">$G$14</f>
+        <f t="shared" ref="K14:M14" si="5">$G$14</f>
         <v>100</v>
       </c>
       <c r="L14" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="M14" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="N14" s="18">
@@ -1805,7 +1812,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1828,7 +1835,7 @@
         <v>100</v>
       </c>
       <c r="H15" s="19">
-        <f t="shared" si="1"/>
+        <f>$R$2</f>
         <v>0.5</v>
       </c>
       <c r="I15" s="3">
@@ -1839,23 +1846,23 @@
         <v>100</v>
       </c>
       <c r="K15" s="18">
-        <f t="shared" ref="K15:N15" si="7">$G$15</f>
+        <f t="shared" ref="K15:N15" si="6">$G$15</f>
         <v>100</v>
       </c>
       <c r="L15" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="M15" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="N15" s="18">
-        <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>14</v>
       </c>
@@ -1878,30 +1885,30 @@
         <v>100</v>
       </c>
       <c r="H16" s="20">
-        <f t="shared" si="1"/>
+        <f>$R$2</f>
         <v>0.5</v>
       </c>
       <c r="I16" s="10">
         <v>0</v>
       </c>
       <c r="J16" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K16" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.1881117876254099</v>
       </c>
       <c r="L16" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15.411722829867564</v>
       </c>
       <c r="M16" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>70.360501651427683</v>
       </c>
       <c r="N16" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>95.681056756604093</v>
       </c>
     </row>
@@ -1928,30 +1935,30 @@
         <v>20</v>
       </c>
       <c r="H17" s="21">
-        <f t="shared" si="1"/>
+        <f>$R$2</f>
         <v>0.5</v>
       </c>
       <c r="I17" s="9">
         <v>0</v>
       </c>
       <c r="J17" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K17" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L17" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.82335631318545288</v>
       </c>
       <c r="M17" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.4662237455205522</v>
       </c>
       <c r="N17" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10.229727402074349</v>
       </c>
     </row>
@@ -1978,30 +1985,30 @@
         <v>15</v>
       </c>
       <c r="H18" s="22">
-        <f t="shared" si="1"/>
+        <f>$R$2</f>
         <v>0.5</v>
       </c>
       <c r="I18" s="11">
         <v>0</v>
       </c>
       <c r="J18" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K18" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.32003168770557588</v>
       </c>
       <c r="L18" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.0422178845734256</v>
       </c>
       <c r="M18" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.721408953016148</v>
       </c>
       <c r="N18" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13.357073351657263</v>
       </c>
     </row>

--- a/Data/technological_maturity_readiness.xlsx
+++ b/Data/technological_maturity_readiness.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\egbertrv\Documents\GitHub\AIM_Norwegian_Freight_Model\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben\GitHub\STraM_ntnu_development\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDEADF1-3C78-4E40-BB3D-611F704DB140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF69A968-157B-4C91-9914-0E960794780F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="technological_readiness_bass" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="40">
   <si>
     <t>Mode</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>Note: keep t_0_delay at zero! (no longer used)\</t>
+  </si>
+  <si>
+    <t>Catenary</t>
+  </si>
+  <si>
+    <t>Methanol</t>
   </si>
 </sst>
 </file>
@@ -706,30 +712,24 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="35" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="37" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="36" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="39" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -776,7 +776,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent" xfId="42" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -1091,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEC8D20-7A52-476E-9A3F-F3ABE0AF0748}">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,31 +1113,31 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="25">
+      <c r="J1" s="19">
         <v>2022</v>
       </c>
-      <c r="K1" s="25">
+      <c r="K1" s="19">
         <v>2026</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1149,7 +1149,7 @@
       <c r="N1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="18" t="s">
         <v>33</v>
       </c>
       <c r="S1" t="s">
@@ -1160,10 +1160,10 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1178,34 +1178,34 @@
       <c r="G2" s="3">
         <v>100</v>
       </c>
-      <c r="H2" s="19">
-        <f>$R$2</f>
+      <c r="H2" s="14">
+        <f t="shared" ref="H2:H12" si="0">$R$2</f>
         <v>0.5</v>
       </c>
       <c r="I2" s="3">
         <v>0</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="13">
         <f>$G$2</f>
         <v>100</v>
       </c>
-      <c r="K2" s="18">
-        <f t="shared" ref="K2:N2" si="0">$G$2</f>
-        <v>100</v>
-      </c>
-      <c r="L2" s="18">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="M2" s="18">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="N2" s="18">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="R2" s="23">
+      <c r="K2" s="13">
+        <f t="shared" ref="K2:N2" si="1">$G$2</f>
+        <v>100</v>
+      </c>
+      <c r="L2" s="13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="M2" s="13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="N2" s="13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="R2" s="17">
         <v>0.5</v>
       </c>
       <c r="S2" t="s">
@@ -1213,803 +1213,503 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="5">
         <v>2020</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="5">
         <v>0.03</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="5">
         <v>0.5</v>
       </c>
-      <c r="G3" s="10">
-        <v>100</v>
-      </c>
-      <c r="H3" s="20">
-        <f>$R$2</f>
+      <c r="G3" s="5">
+        <v>100</v>
+      </c>
+      <c r="H3" s="15">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="I3" s="10">
-        <v>0</v>
-      </c>
-      <c r="J3" s="18">
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13">
         <f>$G3*((1-EXP(-($E3+$F3)*MAX(J$1-$D3,0)))/(1+($F3/$E3)*EXP(-($E3+$F3)*MAX(J$1-$D3))))</f>
         <v>9.6474574562864284</v>
       </c>
-      <c r="K3" s="18">
-        <f t="shared" ref="K3:N18" si="1">$G3*((1-EXP(-($E3+$F3)*MAX(K$1-$D3,0)))/(1+($F3/$E3)*EXP(-($E3+$F3)*MAX(K$1-$D3))))</f>
+      <c r="K3" s="13">
+        <f t="shared" ref="K3:N12" si="2">$G3*((1-EXP(-($E3+$F3)*MAX(K$1-$D3,0)))/(1+($F3/$E3)*EXP(-($E3+$F3)*MAX(K$1-$D3))))</f>
         <v>56.607264701041494</v>
       </c>
-      <c r="L3" s="18">
-        <f t="shared" si="1"/>
+      <c r="L3" s="13">
+        <f t="shared" si="2"/>
         <v>91.858809388636558</v>
       </c>
-      <c r="M3" s="18">
-        <f t="shared" si="1"/>
+      <c r="M3" s="13">
+        <f t="shared" si="2"/>
         <v>99.955999987886514</v>
       </c>
-      <c r="N3" s="18">
-        <f t="shared" si="1"/>
+      <c r="N3" s="13">
+        <f t="shared" si="2"/>
         <v>99.999780279057944</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>2020</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>0.02</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>0.2</v>
       </c>
-      <c r="G4" s="9">
-        <v>100</v>
-      </c>
-      <c r="H4" s="21">
-        <f>$R$2</f>
+      <c r="G4" s="7">
+        <v>100</v>
+      </c>
+      <c r="H4" s="16">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="18">
-        <f t="shared" ref="J4:J18" si="2">$G4*((1-EXP(-($E4+$F4)*MAX(J$1-$D4,0)))/(1+($F4/$E4)*EXP(-($E4+$F4)*MAX(J$1-$D4))))</f>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
+        <f t="shared" ref="J4:J12" si="3">$G4*((1-EXP(-($E4+$F4)*MAX(J$1-$D4,0)))/(1+($F4/$E4)*EXP(-($E4+$F4)*MAX(J$1-$D4))))</f>
         <v>4.7842225034986816</v>
       </c>
-      <c r="K4" s="18">
-        <f t="shared" si="1"/>
+      <c r="K4" s="13">
+        <f t="shared" si="2"/>
         <v>19.961706055232963</v>
       </c>
-      <c r="L4" s="18">
-        <f t="shared" si="1"/>
+      <c r="L4" s="13">
+        <f t="shared" si="2"/>
         <v>42.181381367602278</v>
       </c>
-      <c r="M4" s="18">
-        <f t="shared" si="1"/>
+      <c r="M4" s="13">
+        <f t="shared" si="2"/>
         <v>87.971683418012475</v>
       </c>
-      <c r="N4" s="18">
-        <f t="shared" si="1"/>
+      <c r="N4" s="13">
+        <f t="shared" si="2"/>
         <v>98.523678563648915</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="3">
+        <v>100</v>
+      </c>
+      <c r="H5" s="14">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13">
+        <f>$G$5</f>
+        <v>100</v>
+      </c>
+      <c r="K5" s="13">
+        <f t="shared" ref="K5:N5" si="4">$G$5</f>
+        <v>100</v>
+      </c>
+      <c r="L5" s="13">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="M5" s="13">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="N5" s="13">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="11">
-        <v>2015</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="D6" s="3">
+        <v>2010</v>
+      </c>
+      <c r="E6" s="3">
         <v>0.02</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F6" s="3">
         <v>0.1</v>
       </c>
-      <c r="G5" s="11">
-        <v>20</v>
-      </c>
-      <c r="H5" s="22">
-        <f>$R$2</f>
+      <c r="G6" s="3">
+        <v>50</v>
+      </c>
+      <c r="H6" s="14">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="I5" s="11">
-        <v>0</v>
-      </c>
-      <c r="J5" s="18">
-        <f t="shared" si="2"/>
-        <v>3.5984170311813433</v>
-      </c>
-      <c r="K5" s="18">
-        <f t="shared" si="1"/>
-        <v>6.2753955434327278</v>
-      </c>
-      <c r="L5" s="18">
-        <f t="shared" si="1"/>
-        <v>9.139925016931258</v>
-      </c>
-      <c r="M5" s="18">
-        <f t="shared" si="1"/>
-        <v>15.216367089632485</v>
-      </c>
-      <c r="N5" s="18">
-        <f t="shared" si="1"/>
-        <v>18.326040707377075</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
+        <f t="shared" si="3"/>
+        <v>17.464494442273157</v>
+      </c>
+      <c r="K6" s="13">
+        <f t="shared" si="2"/>
+        <v>24.621347263899171</v>
+      </c>
+      <c r="L6" s="13">
+        <f t="shared" si="2"/>
+        <v>31.277120536322322</v>
+      </c>
+      <c r="M6" s="13">
+        <f t="shared" si="2"/>
+        <v>42.788155458708573</v>
+      </c>
+      <c r="N6" s="13">
+        <f t="shared" si="2"/>
+        <v>47.628653782953698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="11">
-        <v>2020</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="D7" s="7">
+        <v>2030</v>
+      </c>
+      <c r="E7" s="7">
         <v>0.02</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F7" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="G7" s="7">
+        <v>50</v>
+      </c>
+      <c r="H7" s="16">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="13">
+        <f t="shared" si="2"/>
+        <v>21.090690683801139</v>
+      </c>
+      <c r="N7" s="13">
+        <f t="shared" si="2"/>
+        <v>43.985841709006237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2030</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F8" s="7">
         <v>0.15</v>
       </c>
-      <c r="G6" s="11">
-        <v>10</v>
-      </c>
-      <c r="H6" s="22">
-        <f>$R$2</f>
+      <c r="G8" s="7">
+        <v>60</v>
+      </c>
+      <c r="H8" s="16">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="I6" s="11">
-        <v>0</v>
-      </c>
-      <c r="J6" s="18">
-        <f t="shared" si="2"/>
-        <v>0.45474449618626511</v>
-      </c>
-      <c r="K6" s="18">
-        <f t="shared" si="1"/>
-        <v>1.7260402481457908</v>
-      </c>
-      <c r="L6" s="18">
-        <f t="shared" si="1"/>
-        <v>3.4484087661554712</v>
-      </c>
-      <c r="M6" s="18">
-        <f t="shared" si="1"/>
-        <v>7.7311613012867291</v>
-      </c>
-      <c r="N6" s="18">
-        <f t="shared" si="1"/>
-        <v>9.5044364808083692</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="3">
-        <v>100</v>
-      </c>
-      <c r="H7" s="19">
-        <f>$R$2</f>
-        <v>0.5</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="18">
-        <f>$G$7</f>
-        <v>100</v>
-      </c>
-      <c r="K7" s="18">
-        <f t="shared" ref="K7:N7" si="3">$G$7</f>
-        <v>100</v>
-      </c>
-      <c r="L7" s="18">
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="M7" s="18">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="N7" s="18">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
-      <c r="H8" s="19">
-        <f>$R$2</f>
-        <v>0.5</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="18">
-        <f>$G$8</f>
-        <v>100</v>
-      </c>
-      <c r="K8" s="18">
-        <f t="shared" ref="K8:N8" si="4">$G$8</f>
-        <v>100</v>
-      </c>
-      <c r="L8" s="18">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="M8" s="18">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="N8" s="18">
-        <f t="shared" si="4"/>
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="K8" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="13">
+        <f t="shared" si="2"/>
+        <v>20.690452596932829</v>
+      </c>
+      <c r="N8" s="13">
+        <f t="shared" si="2"/>
+        <v>46.386967807720374</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="3">
+        <v>100</v>
+      </c>
+      <c r="H9" s="14">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
+        <f>$G$9</f>
+        <v>100</v>
+      </c>
+      <c r="K9" s="13">
+        <f t="shared" ref="K9:M9" si="5">$G$9</f>
+        <v>100</v>
+      </c>
+      <c r="L9" s="13">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="M9" s="13">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="N9" s="13">
+        <f>$G$9</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="14">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="13">
+        <f>$G$10</f>
+        <v>100</v>
+      </c>
+      <c r="K10" s="13">
+        <f t="shared" ref="K10:N10" si="6">$G$10</f>
+        <v>100</v>
+      </c>
+      <c r="L10" s="13">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="M10" s="13">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="N10" s="13">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="3">
-        <v>2010</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D11" s="5">
+        <v>2025</v>
+      </c>
+      <c r="E11" s="5">
         <v>0.02</v>
       </c>
-      <c r="F9" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>50</v>
-      </c>
-      <c r="H9" s="19">
-        <f>$R$2</f>
+      <c r="F11" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>100</v>
+      </c>
+      <c r="H11" s="15">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="18">
-        <f t="shared" si="2"/>
-        <v>17.464494442273157</v>
-      </c>
-      <c r="K9" s="18">
-        <f t="shared" si="1"/>
-        <v>24.621347263899171</v>
-      </c>
-      <c r="L9" s="18">
-        <f t="shared" si="1"/>
-        <v>31.277120536322322</v>
-      </c>
-      <c r="M9" s="18">
-        <f t="shared" si="1"/>
-        <v>42.788155458708573</v>
-      </c>
-      <c r="N9" s="18">
-        <f t="shared" si="1"/>
-        <v>47.628653782953698</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="16" t="s">
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="13">
+        <f t="shared" si="2"/>
+        <v>2.1881117876254099</v>
+      </c>
+      <c r="L11" s="13">
+        <f t="shared" si="2"/>
+        <v>15.411722829867564</v>
+      </c>
+      <c r="M11" s="13">
+        <f t="shared" si="2"/>
+        <v>70.360501651427683</v>
+      </c>
+      <c r="N11" s="13">
+        <f t="shared" si="2"/>
+        <v>95.681056756604093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="9">
-        <v>2030</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="D12" s="7">
+        <v>2028</v>
+      </c>
+      <c r="E12" s="7">
         <v>0.02</v>
       </c>
-      <c r="F10" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="G10" s="9">
-        <v>50</v>
-      </c>
-      <c r="H10" s="21">
-        <f>$R$2</f>
+      <c r="F12" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="G12" s="7">
+        <v>20</v>
+      </c>
+      <c r="H12" s="16">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="18">
-        <f t="shared" si="1"/>
-        <v>21.090690683801139</v>
-      </c>
-      <c r="N10" s="18">
-        <f t="shared" si="1"/>
-        <v>43.985841709006237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="9">
-        <v>2030</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="G11" s="9">
-        <v>60</v>
-      </c>
-      <c r="H11" s="21">
-        <f>$R$2</f>
-        <v>0.5</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="18">
-        <f t="shared" si="1"/>
-        <v>20.690452596932829</v>
-      </c>
-      <c r="N11" s="18">
-        <f t="shared" si="1"/>
-        <v>46.386967807720374</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="11">
-        <v>2028</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0.03</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="G12" s="11">
-        <v>100</v>
-      </c>
-      <c r="H12" s="22">
-        <f>$R$2</f>
-        <v>0.5</v>
-      </c>
-      <c r="I12" s="11">
-        <v>0</v>
-      </c>
-      <c r="J12" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="18">
-        <f t="shared" si="1"/>
-        <v>7.8324976942203932</v>
-      </c>
-      <c r="M12" s="18">
-        <f t="shared" si="1"/>
-        <v>82.387974776626365</v>
-      </c>
-      <c r="N12" s="18">
-        <f t="shared" si="1"/>
-        <v>99.231981162990849</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="11">
-        <v>2028</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0.03</v>
-      </c>
-      <c r="F13" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="G13" s="11">
-        <v>100</v>
-      </c>
-      <c r="H13" s="22">
-        <f>$R$2</f>
-        <v>0.5</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0</v>
-      </c>
-      <c r="J13" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="18">
-        <f t="shared" si="1"/>
-        <v>7.8324976942203932</v>
-      </c>
-      <c r="M13" s="18">
-        <f t="shared" si="1"/>
-        <v>82.387974776626365</v>
-      </c>
-      <c r="N13" s="18">
-        <f t="shared" si="1"/>
-        <v>99.231981162990849</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="3">
-        <v>100</v>
-      </c>
-      <c r="H14" s="19">
-        <f>$R$2</f>
-        <v>0.5</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="18">
-        <f>$G$14</f>
-        <v>100</v>
-      </c>
-      <c r="K14" s="18">
-        <f t="shared" ref="K14:M14" si="5">$G$14</f>
-        <v>100</v>
-      </c>
-      <c r="L14" s="18">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="M14" s="18">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="N14" s="18">
-        <f>$G$14</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="3">
-        <v>100</v>
-      </c>
-      <c r="H15" s="19">
-        <f>$R$2</f>
-        <v>0.5</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="18">
-        <f>$G$15</f>
-        <v>100</v>
-      </c>
-      <c r="K15" s="18">
-        <f t="shared" ref="K15:N15" si="6">$G$15</f>
-        <v>100</v>
-      </c>
-      <c r="L15" s="18">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="M15" s="18">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="N15" s="18">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="10">
-        <v>2025</v>
-      </c>
-      <c r="E16" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="F16" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="G16" s="10">
-        <v>100</v>
-      </c>
-      <c r="H16" s="20">
-        <f>$R$2</f>
-        <v>0.5</v>
-      </c>
-      <c r="I16" s="10">
-        <v>0</v>
-      </c>
-      <c r="J16" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="18">
-        <f t="shared" si="1"/>
-        <v>2.1881117876254099</v>
-      </c>
-      <c r="L16" s="18">
-        <f t="shared" si="1"/>
-        <v>15.411722829867564</v>
-      </c>
-      <c r="M16" s="18">
-        <f t="shared" si="1"/>
-        <v>70.360501651427683</v>
-      </c>
-      <c r="N16" s="18">
-        <f t="shared" si="1"/>
-        <v>95.681056756604093</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="9">
-        <v>2028</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="G17" s="9">
-        <v>20</v>
-      </c>
-      <c r="H17" s="21">
-        <f>$R$2</f>
-        <v>0.5</v>
-      </c>
-      <c r="I17" s="9">
-        <v>0</v>
-      </c>
-      <c r="J17" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="18">
-        <f t="shared" si="1"/>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="13">
+        <f t="shared" si="2"/>
         <v>0.82335631318545288</v>
       </c>
-      <c r="M17" s="18">
-        <f t="shared" si="1"/>
+      <c r="M12" s="13">
+        <f t="shared" si="2"/>
         <v>5.4662237455205522</v>
       </c>
-      <c r="N17" s="18">
-        <f t="shared" si="1"/>
+      <c r="N12" s="13">
+        <f t="shared" si="2"/>
         <v>10.229727402074349</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="11">
-        <v>2025</v>
-      </c>
-      <c r="E18" s="11">
-        <v>0.02</v>
-      </c>
-      <c r="F18" s="11">
-        <v>0.15</v>
-      </c>
-      <c r="G18" s="11">
-        <v>15</v>
-      </c>
-      <c r="H18" s="22">
-        <f>$R$2</f>
-        <v>0.5</v>
-      </c>
-      <c r="I18" s="11">
-        <v>0</v>
-      </c>
-      <c r="J18" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="18">
-        <f t="shared" si="1"/>
-        <v>0.32003168770557588</v>
-      </c>
-      <c r="L18" s="18">
-        <f t="shared" si="1"/>
-        <v>2.0422178845734256</v>
-      </c>
-      <c r="M18" s="18">
-        <f t="shared" si="1"/>
-        <v>8.721408953016148</v>
-      </c>
-      <c r="N18" s="18">
-        <f t="shared" si="1"/>
-        <v>13.357073351657263</v>
       </c>
     </row>
   </sheetData>
@@ -2022,8 +1722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B18F167-6DBA-4198-BA06-95A49D6CEE47}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2044,200 +1744,200 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Data/technological_maturity_readiness.xlsx
+++ b/Data/technological_maturity_readiness.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben\GitHub\STraM_ntnu_development\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF69A968-157B-4C91-9914-0E960794780F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820B5E57-E9EC-4642-A846-43C19011CF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="technological_readiness_bass" sheetId="6" r:id="rId1"/>
     <sheet name="Fuel_groups (cheatsheet)" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Fuel_groups (cheatsheet)'!$A$1:$C$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Fuel_groups (cheatsheet)'!$A$1:$C$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="31">
   <si>
     <t>Mode</t>
   </si>
@@ -51,18 +51,9 @@
     <t>Diesel</t>
   </si>
   <si>
-    <t>Battery electric</t>
-  </si>
-  <si>
     <t>Hydrogen</t>
   </si>
   <si>
-    <t>Biodiesel</t>
-  </si>
-  <si>
-    <t>Biogas</t>
-  </si>
-  <si>
     <t>Sea</t>
   </si>
   <si>
@@ -72,24 +63,12 @@
     <t>MGO</t>
   </si>
   <si>
-    <t>LNG</t>
-  </si>
-  <si>
     <t>Ammonia</t>
   </si>
   <si>
-    <t>Biodiesel (HVO)</t>
-  </si>
-  <si>
     <t>Rail</t>
   </si>
   <si>
-    <t>Electric train (CL)</t>
-  </si>
-  <si>
-    <t>Battery train</t>
-  </si>
-  <si>
     <t>2030</t>
   </si>
   <si>
@@ -106,12 +85,6 @@
   </si>
   <si>
     <t>Battery</t>
-  </si>
-  <si>
-    <t>Biofuel</t>
-  </si>
-  <si>
-    <t>Hybrid</t>
   </si>
   <si>
     <t>p</t>
@@ -299,7 +272,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -494,12 +467,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,7 +679,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -720,18 +687,17 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="35" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="37" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="39" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="36" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="38" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1091,136 +1057,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEC8D20-7A52-476E-9A3F-F3ABE0AF0748}">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.28515625" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.33203125" customWidth="1"/>
+    <col min="18" max="18" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="J1" s="18">
+        <v>2022</v>
+      </c>
+      <c r="K1" s="18">
+        <v>2026</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="19">
-        <v>2022</v>
-      </c>
-      <c r="K1" s="19">
-        <v>2026</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>30</v>
+      <c r="C2" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G2" s="3">
         <v>100</v>
       </c>
-      <c r="H2" s="14">
-        <f t="shared" ref="H2:H12" si="0">$R$2</f>
+      <c r="H2" s="13">
+        <f t="shared" ref="H2:H13" si="0">$R$2</f>
         <v>0.5</v>
       </c>
       <c r="I2" s="3">
         <v>0</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="12">
         <f>$G$2</f>
         <v>100</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="12">
         <f t="shared" ref="K2:N2" si="1">$G$2</f>
         <v>100</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="12">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="12">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="12">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="R2" s="17">
+      <c r="R2" s="16">
         <v>0.5</v>
       </c>
       <c r="S2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="D3" s="5">
         <v>2020</v>
@@ -1234,480 +1200,530 @@
       <c r="G3" s="5">
         <v>100</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="14">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="I3" s="5">
         <v>0</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="12">
         <f>$G3*((1-EXP(-($E3+$F3)*MAX(J$1-$D3,0)))/(1+($F3/$E3)*EXP(-($E3+$F3)*MAX(J$1-$D3))))</f>
         <v>9.6474574562864284</v>
       </c>
-      <c r="K3" s="13">
-        <f t="shared" ref="K3:N12" si="2">$G3*((1-EXP(-($E3+$F3)*MAX(K$1-$D3,0)))/(1+($F3/$E3)*EXP(-($E3+$F3)*MAX(K$1-$D3))))</f>
+      <c r="K3" s="12">
+        <f t="shared" ref="K3:N13" si="2">$G3*((1-EXP(-($E3+$F3)*MAX(K$1-$D3,0)))/(1+($F3/$E3)*EXP(-($E3+$F3)*MAX(K$1-$D3))))</f>
         <v>56.607264701041494</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="12">
         <f t="shared" si="2"/>
         <v>91.858809388636558</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="12">
         <f t="shared" si="2"/>
         <v>99.955999987886514</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="12">
         <f t="shared" si="2"/>
         <v>99.999780279057944</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="B4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="6">
         <v>2020</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>0.02</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>0.2</v>
       </c>
-      <c r="G4" s="7">
-        <v>100</v>
-      </c>
-      <c r="H4" s="16">
+      <c r="G4" s="6">
+        <v>100</v>
+      </c>
+      <c r="H4" s="15">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="13">
-        <f t="shared" ref="J4:J12" si="3">$G4*((1-EXP(-($E4+$F4)*MAX(J$1-$D4,0)))/(1+($F4/$E4)*EXP(-($E4+$F4)*MAX(J$1-$D4))))</f>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <f t="shared" ref="J4:J13" si="3">$G4*((1-EXP(-($E4+$F4)*MAX(J$1-$D4,0)))/(1+($F4/$E4)*EXP(-($E4+$F4)*MAX(J$1-$D4))))</f>
         <v>4.7842225034986816</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="12">
         <f t="shared" si="2"/>
         <v>19.961706055232963</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="12">
         <f t="shared" si="2"/>
         <v>42.181381367602278</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="12">
         <f t="shared" si="2"/>
         <v>87.971683418012475</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="12">
         <f t="shared" si="2"/>
         <v>98.523678563648915</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G5" s="3">
         <v>100</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="12">
         <f>$G$5</f>
         <v>100</v>
       </c>
-      <c r="K5" s="13">
-        <f t="shared" ref="K5:N5" si="4">$G$5</f>
-        <v>100</v>
-      </c>
-      <c r="L5" s="13">
+      <c r="K5" s="12">
+        <f t="shared" ref="K5:N6" si="4">$G$5</f>
+        <v>100</v>
+      </c>
+      <c r="L5" s="12">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="12">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="12">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2010</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.1</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="G6" s="3">
-        <v>50</v>
-      </c>
-      <c r="H6" s="14">
+        <v>100</v>
+      </c>
+      <c r="H6" s="13">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
+        <f>$G$5</f>
+        <v>100</v>
+      </c>
+      <c r="K6" s="12">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="L6" s="12">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="M6" s="12">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="N6" s="12">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2010</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>50</v>
+      </c>
+      <c r="H7" s="13">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
         <f t="shared" si="3"/>
         <v>17.464494442273157</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K7" s="12">
         <f t="shared" si="2"/>
         <v>24.621347263899171</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L7" s="12">
         <f t="shared" si="2"/>
         <v>31.277120536322322</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M7" s="12">
         <f t="shared" si="2"/>
         <v>42.788155458708573</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N7" s="12">
         <f t="shared" si="2"/>
         <v>47.628653782953698</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="12" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="B8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="6">
         <v>2030</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E8" s="6">
         <v>0.02</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F8" s="6">
         <v>0.2</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G8" s="6">
         <v>50</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H8" s="15">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="13">
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K7" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="13">
+      <c r="K8" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="12">
         <f t="shared" si="2"/>
         <v>21.090690683801139</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N8" s="12">
         <f t="shared" si="2"/>
         <v>43.985841709006237</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="C9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6">
         <v>2030</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E9" s="6">
         <v>0.02</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F9" s="6">
         <v>0.15</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G9" s="6">
         <v>60</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H9" s="15">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="13">
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="13">
+      <c r="K9" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="12">
         <f t="shared" si="2"/>
         <v>20.690452596932829</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N9" s="12">
         <f t="shared" si="2"/>
         <v>46.386967807720374</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="10" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="3">
-        <v>100</v>
-      </c>
-      <c r="H9" s="14">
+      <c r="C10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="13">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="13">
-        <f>$G$9</f>
-        <v>100</v>
-      </c>
-      <c r="K9" s="13">
-        <f t="shared" ref="K9:M9" si="5">$G$9</f>
-        <v>100</v>
-      </c>
-      <c r="L9" s="13">
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <f>$G$10</f>
+        <v>100</v>
+      </c>
+      <c r="K10" s="12">
+        <f t="shared" ref="K10:M10" si="5">$G$10</f>
+        <v>100</v>
+      </c>
+      <c r="L10" s="12">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M10" s="12">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="N9" s="13">
-        <f>$G$9</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="N10" s="12">
+        <f>$G$10</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
-      <c r="H10" s="14">
+      <c r="C11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="3">
+        <v>100</v>
+      </c>
+      <c r="H11" s="13">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="13">
-        <f>$G$10</f>
-        <v>100</v>
-      </c>
-      <c r="K10" s="13">
-        <f t="shared" ref="K10:N10" si="6">$G$10</f>
-        <v>100</v>
-      </c>
-      <c r="L10" s="13">
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <f>$G$11</f>
+        <v>100</v>
+      </c>
+      <c r="K11" s="12">
+        <f t="shared" ref="K11:N11" si="6">$G$11</f>
+        <v>100</v>
+      </c>
+      <c r="L11" s="12">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M11" s="12">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N11" s="12">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="11" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="D12" s="5">
         <v>2025</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E12" s="5">
         <v>0.02</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F12" s="5">
         <v>0.2</v>
       </c>
-      <c r="G11" s="5">
-        <v>100</v>
-      </c>
-      <c r="H11" s="15">
+      <c r="G12" s="5">
+        <v>100</v>
+      </c>
+      <c r="H12" s="14">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="13">
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K12" s="12">
         <f t="shared" si="2"/>
         <v>2.1881117876254099</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L12" s="12">
         <f t="shared" si="2"/>
         <v>15.411722829867564</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M12" s="12">
         <f t="shared" si="2"/>
         <v>70.360501651427683</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N12" s="12">
         <f t="shared" si="2"/>
         <v>95.681056756604093</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="7">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="6">
         <v>2028</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E13" s="6">
         <v>0.02</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F13" s="6">
         <v>0.05</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G13" s="6">
         <v>20</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H13" s="15">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="13">
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K12" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="13">
+      <c r="K13" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="12">
         <f t="shared" si="2"/>
         <v>0.82335631318545288</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M13" s="12">
         <f t="shared" si="2"/>
         <v>5.4662237455205522</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N13" s="12">
         <f t="shared" si="2"/>
         <v>10.229727402074349</v>
       </c>
@@ -1720,19 +1736,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B18F167-6DBA-4198-BA06-95A49D6CEE47}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1740,211 +1756,145 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="C10" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="C12" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>5</v>
+      <c r="B13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C19" xr:uid="{5B18F167-6DBA-4198-BA06-95A49D6CEE47}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C19">
-      <sortCondition ref="C1:C19"/>
+  <autoFilter ref="A1:C13" xr:uid="{5B18F167-6DBA-4198-BA06-95A49D6CEE47}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C13">
+      <sortCondition ref="C1:C13"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/technological_maturity_readiness.xlsx
+++ b/Data/technological_maturity_readiness.xlsx
@@ -1,43 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben\GitHub\STraM_ntnu_development\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steffejb\OneDrive - NTNU\Work\GitHub\STraM_ntnu_development\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820B5E57-E9EC-4642-A846-43C19011CF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{820B5E57-E9EC-4642-A846-43C19011CF65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{E69D1286-6421-4EB1-9035-ECA5BACE0FFE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="technological_readiness_bass" sheetId="6" r:id="rId1"/>
-    <sheet name="Fuel_groups (cheatsheet)" sheetId="4" r:id="rId2"/>
+    <sheet name="phase_out_fuels" sheetId="7" r:id="rId2"/>
+    <sheet name="Fuel_groups (cheatsheet)" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Fuel_groups (cheatsheet)'!$A$1:$C$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Fuel_groups (cheatsheet)'!$A$1:$C$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="33">
   <si>
     <t>Mode</t>
   </si>
@@ -130,6 +118,12 @@
   </si>
   <si>
     <t>Methanol</t>
+  </si>
+  <si>
+    <t>Restriction</t>
+  </si>
+  <si>
+    <t>Time period</t>
   </si>
 </sst>
 </file>
@@ -679,7 +673,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -701,6 +695,7 @@
     <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -742,12 +737,31 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Per cent" xfId="42" builtinId="5"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -758,6 +772,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11A952BB-84A7-4CD9-B9A5-BC8B134209C8}" name="Table1" displayName="Table1" ref="A1:D6" totalsRowShown="0">
+  <autoFilter ref="A1:D6" xr:uid="{013651BA-0FFC-4430-BA0D-03A89191A43E}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{E94B8E81-7F34-4AFE-988F-7D12B8F27698}" name="Mode"/>
+    <tableColumn id="2" xr3:uid="{EDF7ADA7-B340-4BC6-AFD1-4ED23EA91CF4}" name="Fuel"/>
+    <tableColumn id="3" xr3:uid="{16A2ACDC-F9B8-4CDD-9BA8-F2A7CDD2EF1A}" name="Time period"/>
+    <tableColumn id="4" xr3:uid="{24ADA397-1471-476A-8F43-78EC46B52210}" name="Restriction" dataDxfId="0" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1060,19 +1087,19 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="J1" sqref="J1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.33203125" customWidth="1"/>
-    <col min="18" max="18" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.28515625" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1122,7 +1149,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1178,7 +1205,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1228,7 +1255,7 @@
         <v>99.999780279057944</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1278,7 +1305,7 @@
         <v>98.523678563648915</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1328,7 +1355,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1378,7 +1405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1428,7 +1455,7 @@
         <v>47.628653782953698</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1478,7 +1505,7 @@
         <v>43.985841709006237</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
@@ -1528,7 +1555,7 @@
         <v>46.386967807720374</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1578,7 +1605,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1628,7 +1655,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1678,7 +1705,7 @@
         <v>95.681056756604093</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
@@ -1735,20 +1762,127 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76863746-C34D-4AED-8106-1FF68650C184}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>2028</v>
+      </c>
+      <c r="D3" s="19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>2034</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>2040</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>2050</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B18F167-6DBA-4198-BA06-95A49D6CEE47}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1759,7 +1893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1770,7 +1904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1781,7 +1915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1792,7 +1926,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1803,7 +1937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1814,7 +1948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1825,7 +1959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1836,7 +1970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -1847,7 +1981,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
@@ -1858,7 +1992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
@@ -1869,7 +2003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
@@ -1880,7 +2014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
@@ -1893,7 +2027,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C13" xr:uid="{5B18F167-6DBA-4198-BA06-95A49D6CEE47}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C13">
+    <sortState ref="A2:C13">
       <sortCondition ref="C1:C13"/>
     </sortState>
   </autoFilter>

--- a/Data/technological_maturity_readiness.xlsx
+++ b/Data/technological_maturity_readiness.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steffejb\OneDrive - NTNU\Work\GitHub\STraM_ntnu_development\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/STraM_ntnu_development/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{820B5E57-E9EC-4642-A846-43C19011CF65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{E69D1286-6421-4EB1-9035-ECA5BACE0FFE}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="113_{7B03D4FF-8522-4FA3-AC78-48C68145C611}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{4247D5A8-7256-4CDE-BC62-3A6E3DBC8795}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="technological_readiness_bass" sheetId="6" r:id="rId1"/>
@@ -1086,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEC8D20-7A52-476E-9A3F-F3ABE0AF0748}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,13 +1219,13 @@
         <v>2020</v>
       </c>
       <c r="E3" s="5">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F3" s="5">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G3" s="5">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H3" s="14">
         <f t="shared" si="0"/>
@@ -1236,23 +1236,23 @@
       </c>
       <c r="J3" s="12">
         <f>$G3*((1-EXP(-($E3+$F3)*MAX(J$1-$D3,0)))/(1+($F3/$E3)*EXP(-($E3+$F3)*MAX(J$1-$D3))))</f>
-        <v>9.6474574562864284</v>
+        <v>4.718929306551364</v>
       </c>
       <c r="K3" s="12">
         <f t="shared" ref="K3:N13" si="2">$G3*((1-EXP(-($E3+$F3)*MAX(K$1-$D3,0)))/(1+($F3/$E3)*EXP(-($E3+$F3)*MAX(K$1-$D3))))</f>
-        <v>56.607264701041494</v>
+        <v>28.193872913196202</v>
       </c>
       <c r="L3" s="12">
         <f t="shared" si="2"/>
-        <v>91.858809388636558</v>
+        <v>60.619781921478939</v>
       </c>
       <c r="M3" s="12">
         <f t="shared" si="2"/>
-        <v>99.955999987886514</v>
+        <v>79.623914283155713</v>
       </c>
       <c r="N3" s="12">
         <f t="shared" si="2"/>
-        <v>99.999780279057944</v>
+        <v>79.994335396429236</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -1266,16 +1266,16 @@
         <v>22</v>
       </c>
       <c r="D4" s="6">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E4" s="6">
         <v>0.02</v>
       </c>
       <c r="F4" s="6">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G4" s="6">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H4" s="15">
         <f t="shared" si="0"/>
@@ -1286,23 +1286,23 @@
       </c>
       <c r="J4" s="12">
         <f t="shared" ref="J4:J13" si="3">$G4*((1-EXP(-($E4+$F4)*MAX(J$1-$D4,0)))/(1+($F4/$E4)*EXP(-($E4+$F4)*MAX(J$1-$D4))))</f>
-        <v>4.7842225034986816</v>
+        <v>2.0724939854319051</v>
       </c>
       <c r="K4" s="12">
         <f t="shared" si="2"/>
-        <v>19.961706055232963</v>
+        <v>17.830518721584536</v>
       </c>
       <c r="L4" s="12">
         <f t="shared" si="2"/>
-        <v>42.181381367602278</v>
+        <v>46.116657159583688</v>
       </c>
       <c r="M4" s="12">
         <f t="shared" si="2"/>
-        <v>87.971683418012475</v>
+        <v>86.814365052467252</v>
       </c>
       <c r="N4" s="12">
         <f t="shared" si="2"/>
-        <v>98.523678563648915</v>
+        <v>89.865877228933556</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1416,16 +1416,16 @@
         <v>22</v>
       </c>
       <c r="D7" s="3">
-        <v>2010</v>
+        <v>2025</v>
       </c>
       <c r="E7" s="3">
         <v>0.02</v>
       </c>
       <c r="F7" s="3">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G7" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H7" s="13">
         <f t="shared" si="0"/>
@@ -1436,23 +1436,23 @@
       </c>
       <c r="J7" s="12">
         <f t="shared" si="3"/>
-        <v>17.464494442273157</v>
+        <v>0</v>
       </c>
       <c r="K7" s="12">
         <f t="shared" si="2"/>
-        <v>24.621347263899171</v>
+        <v>1.3466991251383984</v>
       </c>
       <c r="L7" s="12">
         <f t="shared" si="2"/>
-        <v>31.277120536322322</v>
+        <v>10.481205096735865</v>
       </c>
       <c r="M7" s="12">
         <f t="shared" si="2"/>
-        <v>42.788155458708573</v>
+        <v>48.411595582463747</v>
       </c>
       <c r="N7" s="12">
         <f t="shared" si="2"/>
-        <v>47.628653782953698</v>
+        <v>59.06526823681439</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1466,16 +1466,16 @@
         <v>22</v>
       </c>
       <c r="D8" s="6">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="E8" s="6">
         <v>0.02</v>
       </c>
       <c r="F8" s="6">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G8" s="6">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H8" s="15">
         <f t="shared" si="0"/>
@@ -1490,19 +1490,19 @@
       </c>
       <c r="K8" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.0724939854319051</v>
       </c>
       <c r="L8" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17.830518721584536</v>
       </c>
       <c r="M8" s="12">
         <f t="shared" si="2"/>
-        <v>21.090690683801139</v>
+        <v>79.451354510710701</v>
       </c>
       <c r="N8" s="12">
         <f t="shared" si="2"/>
-        <v>43.985841709006237</v>
+        <v>89.519352405398095</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1516,16 +1516,16 @@
         <v>22</v>
       </c>
       <c r="D9" s="6">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="E9" s="6">
         <v>0.02</v>
       </c>
       <c r="F9" s="6">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G9" s="6">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H9" s="15">
         <f t="shared" si="0"/>
@@ -1540,19 +1540,19 @@
       </c>
       <c r="K9" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.8422168759394713</v>
       </c>
       <c r="L9" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15.849349974741809</v>
       </c>
       <c r="M9" s="12">
         <f t="shared" si="2"/>
-        <v>20.690452596932829</v>
+        <v>70.623426231742854</v>
       </c>
       <c r="N9" s="12">
         <f t="shared" si="2"/>
-        <v>46.386967807720374</v>
+        <v>79.572757693687194</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1666,16 +1666,16 @@
         <v>22</v>
       </c>
       <c r="D12" s="5">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="E12" s="5">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F12" s="5">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G12" s="5">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H12" s="14">
         <f t="shared" si="0"/>
@@ -1690,19 +1690,19 @@
       </c>
       <c r="K12" s="12">
         <f t="shared" si="2"/>
-        <v>2.1881117876254099</v>
+        <v>19.38708935850411</v>
       </c>
       <c r="L12" s="12">
         <f t="shared" si="2"/>
-        <v>15.411722829867564</v>
+        <v>54.243954206266721</v>
       </c>
       <c r="M12" s="12">
         <f t="shared" si="2"/>
-        <v>70.360501651427683</v>
+        <v>79.503995228273482</v>
       </c>
       <c r="N12" s="12">
         <f t="shared" si="2"/>
-        <v>95.681056756604093</v>
+        <v>79.993231421914444</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1716,16 +1716,16 @@
         <v>22</v>
       </c>
       <c r="D13" s="6">
-        <v>2028</v>
+        <v>2024</v>
       </c>
       <c r="E13" s="6">
         <v>0.02</v>
       </c>
       <c r="F13" s="6">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="G13" s="6">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="H13" s="15">
         <f t="shared" si="0"/>
@@ -1740,19 +1740,19 @@
       </c>
       <c r="K13" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.3087954698702839</v>
       </c>
       <c r="L13" s="12">
         <f t="shared" si="2"/>
-        <v>0.82335631318545288</v>
+        <v>31.718107027345727</v>
       </c>
       <c r="M13" s="12">
         <f t="shared" si="2"/>
-        <v>5.4662237455205522</v>
+        <v>87.773372987202734</v>
       </c>
       <c r="N13" s="12">
         <f t="shared" si="2"/>
-        <v>10.229727402074349</v>
+        <v>89.965817097308673</v>
       </c>
     </row>
   </sheetData>
@@ -1765,8 +1765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76863746-C34D-4AED-8106-1FF68650C184}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
